--- a/Ch-2/fig_outputs/Appendix_Pairwise_Comparison_noFCM.xlsx
+++ b/Ch-2/fig_outputs/Appendix_Pairwise_Comparison_noFCM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18009" windowHeight="8820" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18009" windowHeight="8820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rPI_mig" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="593">
   <si>
     <t>X1</t>
   </si>
@@ -1766,6 +1766,51 @@
   </si>
   <si>
     <t>3.78559388287366e-315</t>
+  </si>
+  <si>
+    <t>AF - AH</t>
+  </si>
+  <si>
+    <t>AF - B</t>
+  </si>
+  <si>
+    <t>AF - F</t>
+  </si>
+  <si>
+    <t>AF - G</t>
+  </si>
+  <si>
+    <t>AF - GH</t>
+  </si>
+  <si>
+    <t>AH - B</t>
+  </si>
+  <si>
+    <t>AH - F</t>
+  </si>
+  <si>
+    <t>AH - G</t>
+  </si>
+  <si>
+    <t>AH - GH</t>
+  </si>
+  <si>
+    <t>B - F</t>
+  </si>
+  <si>
+    <t>B - G</t>
+  </si>
+  <si>
+    <t>B - GH</t>
+  </si>
+  <si>
+    <t>F - G</t>
+  </si>
+  <si>
+    <t>F - GH</t>
+  </si>
+  <si>
+    <t>G - GH</t>
   </si>
 </sst>
 </file>
@@ -4585,12 +4630,2435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-0.14488243435487499</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-2.21829238518428</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.9311050711158399E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.230243897472624</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-7.8541638907652797E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-1.21130166093591</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.1647987662801907E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.40730901615752E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>699.00000000022601</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.97626882057562</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.271668306185469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-0.25540658199071398</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-3.9105256512200701</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.17026309371503E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.8438548439970499E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.33907022094346001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-9.9794593987890298E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1.53907353005563</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.102845298188897</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.4073090161575099E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>699.00000000011903</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.2722100693602103</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.4459948667082498E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-0.35037542111543901</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-5.3645918642722101</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.7414772181161799E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.73294387225833E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.56430458392316296</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-0.105873504277934</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-1.6328250004020599</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.25426594201022E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.4073090161575099E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>699.00000000004695</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.7672288490826</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-0.20337506621276599</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-3.1138720351087801</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.18449028351753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.3786868773434199E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.16437957974523401</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-0.13370159741969201</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-2.0620013699316502</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.16419348506603301</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.75150923372414</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6.6340795447221906E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.85948991136653397</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.216530422017677</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>335.78106600947302</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.3152934547333501</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.100535841197541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-0.110524147635839</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3.7261483700118801E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>699.00000000001103</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-2.96617677721424</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.27750980925896102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.17332098279484501</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.3744001975323496E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.8488754388837501</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4.5087840366984502E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.58414349209240202</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.24772773254377201</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>335.78106600947302</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.7929549234022</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.8180530629623399E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-0.20549298676056399</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.7261483700118801E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E24" s="4">
+        <v>-5.5148900783011197</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5.7514543060482503E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.19221187307745799</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.0503911613252299</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.90089300769405E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.50538709444637697</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.18742509377497699</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.8696622897370099</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.37789923136339798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-5.8492631857891102E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.7261483700118801E-2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-1.5697880505414401</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.15866930312830901</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.69258085621388</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1.11808369351824E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.144855310848191</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-9.7852689618811203E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-1.04749574874228</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5.2336936951643501E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.62400852888664904</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-0.27471763270187199</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-2.9305089063104699</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.31819591151395799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4">
+        <v>9.12749772881216E-3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5.1631026347204199E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>699.00000000001103</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.176783193644695</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-0.119105644699049</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-1.2750048768151301</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8.3534247477739104E-2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.99597121872835004</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-0.36968647182659697</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E37" s="4">
+        <v>-3.94357467183778</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1.0360522357271199E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2.8018388011425002E-2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5.1631026347204199E-2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.54266571853538503</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-0.12518455498909301</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E39" s="4">
+        <v>-1.3400785371367101</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2.32316087089438E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.27698835313064701</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-0.22268611692392401</v>
+      </c>
+      <c r="C41" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-2.3754705605862898</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-5.52418193772416E-3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5.1631026347204199E-2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-0.106993455845243</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-0.153012648130851</v>
+      </c>
+      <c r="C43" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-1.6379733561258401</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.15018962657045501</v>
+      </c>
+      <c r="C44" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>335.78106600947302</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2.3162865793269001</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-0.176864943083061</v>
+      </c>
+      <c r="C45" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-2.2914050582230798</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.106980187347623</v>
+      </c>
+      <c r="C46" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.1452039988152301</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-2.1252955080237401E-2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3.6879304533717301E-2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>699.00000000001103</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-0.57628405277563399</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.18138693709654999</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D48" s="4">
+        <v>335.78106600947302</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.7974244137617599</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.45765346747816898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-0.27183378220778598</v>
+      </c>
+      <c r="C49" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-3.5217906538680701</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4.87897616802591E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.125871077630236</v>
+      </c>
+      <c r="C50" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.34742764068015</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="4">
+        <v>-2.73318653702814E-2</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3.6879304533717301E-2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E51" s="4">
+        <v>-0.74111661583240995</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.121084298327755</v>
+      </c>
+      <c r="C52" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1.8674121614665899</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4">
+        <v>-0.124833427305113</v>
+      </c>
+      <c r="C53" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D53" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E53" s="4">
+        <v>-1.6173015509802</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="4">
+        <v>9.2328507681087094E-2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D54" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.98836035739446304</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-5.5159958512039503E-2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3.6879304533717301E-2</v>
+      </c>
+      <c r="D55" s="4">
+        <v>699.00000000001103</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-1.4956886852789999</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="4">
+        <v>-0.32705456965351598</v>
+      </c>
+      <c r="C56" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E56" s="4">
+        <v>-5.0075267207691398</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1.01728467804839E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4">
+        <v>-4.3209439222831401E-2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E57" s="4">
+        <v>-0.51518220541581305</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-0.17144258165069201</v>
+      </c>
+      <c r="C58" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E58" s="4">
+        <v>-2.6440584484466201</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.68610959839927199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4">
+        <v>3.1197310526095499E-2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2.4073090161575099E-2</v>
+      </c>
+      <c r="D59" s="4">
+        <v>699.00000000004695</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.2959412487845801</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="4">
+        <v>-0.42202340877824102</v>
+      </c>
+      <c r="C60" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D60" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E60" s="4">
+        <v>-6.4615929338212803</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4.3353374627595203E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="4">
+        <v>-2.4318548940218499E-2</v>
+      </c>
+      <c r="C61" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D61" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-0.28994784243610999</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4">
+        <v>-0.17752149194073599</v>
+      </c>
+      <c r="C62" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E62" s="4">
+        <v>-2.73780991879305</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.540709801300431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4">
+        <v>-2.91053282426997E-2</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2.4073090161575099E-2</v>
+      </c>
+      <c r="D63" s="4">
+        <v>699.00000000004695</v>
+      </c>
+      <c r="E63" s="4">
+        <v>-1.20903997149302</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="4">
+        <v>-0.27502305387556802</v>
+      </c>
+      <c r="C64" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E64" s="4">
+        <v>-4.2108731046578498</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3.5652571060652899E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="4">
+        <v>-5.7861118889367701E-2</v>
+      </c>
+      <c r="C65" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E65" s="4">
+        <v>-0.68987284661403903</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="4">
+        <v>-0.20534958508249401</v>
+      </c>
+      <c r="C66" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>335.78106600947302</v>
+      </c>
+      <c r="E66" s="4">
+        <v>-3.1669862883226401</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.15937348981740199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.28384513043068399</v>
+      </c>
+      <c r="C67" s="4">
+        <v>9.3744001975323496E-2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E67" s="4">
+        <v>3.0278751114700801</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.24146095639863299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.155611988002824</v>
+      </c>
+      <c r="C68" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D68" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2.0160586389489499</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.35825188017961102</v>
+      </c>
+      <c r="C69" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D69" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E69" s="4">
+        <v>5.4851881894379897</v>
+      </c>
+      <c r="F69" s="5">
+        <v>9.4435992836917707E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="4">
+        <v>-9.4968839124724896E-2</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3.7261483700118801E-2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E70" s="4">
+        <v>-2.5487133010868801</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.87095633372007097</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.30273602071329703</v>
+      </c>
+      <c r="C71" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D71" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3.2293908339115598</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.13222204618896199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.14953307771277999</v>
+      </c>
+      <c r="C72" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D72" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1.9373022413029299</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.29794924141081602</v>
+      </c>
+      <c r="C73" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D73" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E73" s="4">
+        <v>4.5618955557727903</v>
+      </c>
+      <c r="F73" s="4">
+        <v>7.97090990024767E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="4">
+        <v>5.2031515777947901E-2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>3.7261483700118801E-2</v>
+      </c>
+      <c r="D74" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.3963887266727899</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.26919345076414802</v>
+      </c>
+      <c r="C75" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D75" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2.8715805288002199</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.37789923136339798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.121704984571021</v>
+      </c>
+      <c r="C76" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D76" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1.5767704577047399</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="4">
+        <v>-0.12823314242786099</v>
+      </c>
+      <c r="C77" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D77" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E77" s="4">
+        <v>-1.3727131268880799</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="4">
+        <v>7.4406749748926901E-2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D78" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.88714489525751405</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4">
+        <v>-0.37881396955540902</v>
+      </c>
+      <c r="C79" s="4">
+        <v>9.3744001975323496E-2</v>
+      </c>
+      <c r="D79" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E79" s="4">
+        <v>-4.0409408769973902</v>
+      </c>
+      <c r="F79" s="4">
+        <v>7.1327341985486801E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="4">
+        <v>1.8890890282612802E-2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>5.1631026347204199E-2</v>
+      </c>
+      <c r="D80" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.36588252489069001</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="4">
+        <v>-0.134312052717905</v>
+      </c>
+      <c r="C81" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D81" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E81" s="4">
+        <v>-1.4377867872096599</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1.41041109801316E-2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D82" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.168162029659812</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4">
+        <v>-0.23181361465273601</v>
+      </c>
+      <c r="C83" s="4">
+        <v>9.3744001975323496E-2</v>
+      </c>
+      <c r="D83" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E83" s="4">
+        <v>-2.4728367657459001</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="4">
+        <v>-1.4651679666536299E-2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>5.1631026347204199E-2</v>
+      </c>
+      <c r="D84" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E84" s="4">
+        <v>-0.28377664948993803</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="4">
+        <v>-0.16214014585966299</v>
+      </c>
+      <c r="C85" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D85" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E85" s="4">
+        <v>-1.7356816061987901</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.20263989217678799</v>
+      </c>
+      <c r="C86" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D86" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E86" s="4">
+        <v>3.1251962828814799</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.179659643969281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4">
+        <v>-0.25058082712754798</v>
+      </c>
+      <c r="C87" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D87" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E87" s="4">
+        <v>-3.2464442345939402</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.12606464572770401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.147124032710474</v>
+      </c>
+      <c r="C88" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D88" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1.57493676875301</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="4">
+        <v>-6.0789102900440104E-3</v>
+      </c>
+      <c r="C89" s="4">
+        <v>3.6879304533717301E-2</v>
+      </c>
+      <c r="D89" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E89" s="4">
+        <v>-0.16483256305677599</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.142337253407992</v>
+      </c>
+      <c r="C90" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D90" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2.1951840305863199</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4">
+        <v>-0.103580472224876</v>
+      </c>
+      <c r="C91" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D91" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E91" s="4">
+        <v>-1.3419551317060701</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.113581462761324</v>
+      </c>
+      <c r="C92" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D92" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1.21586948546732</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="4">
+        <v>-3.3907003431802099E-2</v>
+      </c>
+      <c r="C93" s="4">
+        <v>3.6879304533717301E-2</v>
+      </c>
+      <c r="D93" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E93" s="4">
+        <v>-0.91940463250336701</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="4">
+        <v>-0.45322071930433599</v>
+      </c>
+      <c r="C94" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D94" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E94" s="4">
+        <v>-6.9392544024901301</v>
+      </c>
+      <c r="F94" s="5">
+        <v>2.4473008795603901E-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="4">
+        <v>-5.5515859466314099E-2</v>
+      </c>
+      <c r="C95" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D95" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E95" s="4">
+        <v>-0.66191053227781105</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="4">
+        <v>-0.208718802466832</v>
+      </c>
+      <c r="C96" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D96" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E96" s="4">
+        <v>-3.2189477532279098</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.135569209249009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="4">
+        <v>-6.0302638768795297E-2</v>
+      </c>
+      <c r="C97" s="4">
+        <v>2.4073090161575099E-2</v>
+      </c>
+      <c r="D97" s="4">
+        <v>699.00000000001103</v>
+      </c>
+      <c r="E97" s="4">
+        <v>-2.5049812202776001</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.97283497330233504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="4">
+        <v>-0.306220364401663</v>
+      </c>
+      <c r="C98" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D98" s="4">
+        <v>335.78106600946501</v>
+      </c>
+      <c r="E98" s="4">
+        <v>-4.6885345733266997</v>
+      </c>
+      <c r="F98" s="4">
+        <v>4.5285423585560901E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="4">
+        <v>-8.90584294154632E-2</v>
+      </c>
+      <c r="C99" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D99" s="4">
+        <v>335.78106600944102</v>
+      </c>
+      <c r="E99" s="4">
+        <v>-1.0618355364557399</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4">
+        <v>-0.23654689560858999</v>
+      </c>
+      <c r="C100" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D100" s="4">
+        <v>335.78106600947302</v>
+      </c>
+      <c r="E100" s="4">
+        <v>-3.6481241227574999</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3.0919778481076601E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.39770485983802201</v>
+      </c>
+      <c r="C101" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D101" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4.2424565994388699</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3.1493278908038E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.244501916837504</v>
+      </c>
+      <c r="C102" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D102" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E102" s="4">
+        <v>3.16768783694791</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0.15937348981740199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.392918080535541</v>
+      </c>
+      <c r="C103" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D103" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E103" s="4">
+        <v>6.0159617688249298</v>
+      </c>
+      <c r="F103" s="5">
+        <v>5.5160910561713501E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.14700035490267299</v>
+      </c>
+      <c r="C104" s="4">
+        <v>3.7261483700118801E-2</v>
+      </c>
+      <c r="D104" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E104" s="4">
+        <v>3.9451020277596802</v>
+      </c>
+      <c r="F104" s="4">
+        <v>9.3963275692192007E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.364162289888873</v>
+      </c>
+      <c r="C105" s="4">
+        <v>9.3744001975323593E-2</v>
+      </c>
+      <c r="D105" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3.8846462943275299</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1.2838200310999699E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.216673823695746</v>
+      </c>
+      <c r="C106" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D106" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2.80715605334973</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0.44965467817866001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4">
+        <v>-0.15320294300051801</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E107" s="4">
+        <v>-1.6400104290745801</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4">
+        <v>-4.78677930248119E-3</v>
+      </c>
+      <c r="C108" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D108" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E108" s="4">
+        <v>-5.7072333319891498E-2</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="4">
+        <v>-0.25070450493534902</v>
+      </c>
+      <c r="C109" s="4">
+        <v>9.3744001975323496E-2</v>
+      </c>
+      <c r="D109" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E109" s="4">
+        <v>-2.6743524881873801</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.636146736675548</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4">
+        <v>-3.3542569949149101E-2</v>
+      </c>
+      <c r="C110" s="4">
+        <v>5.1631026347204199E-2</v>
+      </c>
+      <c r="D110" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E110" s="4">
+        <v>-0.64965917438062804</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4">
+        <v>-0.181031036142276</v>
+      </c>
+      <c r="C111" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D111" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E111" s="4">
+        <v>-1.93790524806371</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.14841616369803601</v>
+      </c>
+      <c r="C112" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D112" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2.2889355009327401</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" s="4">
+        <v>-9.7501561934831601E-2</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D113" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E113" s="4">
+        <v>-1.2631987340600399</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.11966037305136799</v>
+      </c>
+      <c r="C114" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D114" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1.28094314578889</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>-2.78280931417581E-2</v>
+      </c>
+      <c r="C115" s="4">
+        <v>3.6879304533717301E-2</v>
+      </c>
+      <c r="D115" s="4">
+        <v>698.99999999997601</v>
+      </c>
+      <c r="E115" s="4">
+        <v>-0.75457206944659105</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="4">
+        <v>-0.24591772563286801</v>
+      </c>
+      <c r="C116" s="4">
+        <v>6.5312595996148998E-2</v>
+      </c>
+      <c r="D116" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E116" s="4">
+        <v>-3.7652419396614998</v>
+      </c>
+      <c r="F116" s="4">
+        <v>2.0031510112855099E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="4">
+        <v>-2.87557906466679E-2</v>
+      </c>
+      <c r="C117" s="4">
+        <v>8.3872150024972697E-2</v>
+      </c>
+      <c r="D117" s="4">
+        <v>335.78106600944898</v>
+      </c>
+      <c r="E117" s="4">
+        <v>-0.342852670858038</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="4">
+        <v>-0.176244256839795</v>
+      </c>
+      <c r="C118" s="4">
+        <v>6.4840692818804502E-2</v>
+      </c>
+      <c r="D118" s="4">
+        <v>335.78106600945699</v>
+      </c>
+      <c r="E118" s="4">
+        <v>-2.7181118704623399</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0.566318823931931</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.21716193498620001</v>
+      </c>
+      <c r="C119" s="4">
+        <v>9.3744001975323496E-2</v>
+      </c>
+      <c r="D119" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E119" s="4">
+        <v>2.31654218307603</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" s="4">
+        <v>6.9673468793073498E-2</v>
+      </c>
+      <c r="C120" s="4">
+        <v>7.7186241013282295E-2</v>
+      </c>
+      <c r="D120" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0.90266695046185796</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="4">
+        <v>-0.147488466193127</v>
+      </c>
+      <c r="C121" s="4">
+        <v>9.3415834609641299E-2</v>
+      </c>
+      <c r="D121" s="4">
+        <v>335.781066009433</v>
+      </c>
+      <c r="E121" s="4">
+        <v>-1.57883796477802</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10868,12 +13336,3835 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-0.209264021829554</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D2" s="4">
+        <v>336.848958190264</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-1.33799393400442</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-0.33968512864688999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>336.84895819018197</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-2.3724082421308199</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-0.11937055098544901</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.13135628843494801</v>
+      </c>
+      <c r="D4" s="4">
+        <v>336.84895819009199</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-0.90875398816224295</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-0.26462877427864601</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D5" s="4">
+        <v>336.84895819025598</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1.7209104444329599</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-0.139515404423628</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.7577160158450296E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>696.00000000292698</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-1.5930569588144601</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-0.228073812499752</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D7" s="4">
+        <v>336.848958190264</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-1.4582601202154299</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-0.32666065222909602</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>336.84895819018197</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-2.2814434850744898</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-8.1247137919749607E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.13135628843494801</v>
+      </c>
+      <c r="D9" s="4">
+        <v>336.84895819008398</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-0.61852492094419997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-0.39710970872561102</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D10" s="4">
+        <v>336.84895819025598</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-2.5824487423731401</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-3.3814674452243398E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.7577160158450101E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>696.00000000232399</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-0.38611293619322301</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-0.21335184577020699</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D12" s="4">
+        <v>336.848958190264</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-1.36413069458109</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-0.36881458918292098</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>336.84895819018197</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-2.5758524510068099</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-6.7915751613358902E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.13135628843494801</v>
+      </c>
+      <c r="D14" s="4">
+        <v>336.84895819008398</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-0.51703464236501495</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-0.52729405720629097</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D15" s="4">
+        <v>336.84895819025598</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-3.4290520855386801</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.119153630256379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-7.1951325670557897E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8.7577160158449893E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>696.00000000126101</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-0.82157637379859305</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-0.234878594585786</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D17" s="4">
+        <v>336.848958190264</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1.50176858896095</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-0.310328832355518</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>336.84895819018197</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-2.1673797807509798</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-0.107426621649303</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.13135628843494801</v>
+      </c>
+      <c r="D19" s="4">
+        <v>336.84895819009199</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-0.81782625658233798</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-0.39094568368131699</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D20" s="4">
+        <v>336.84895819025598</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-2.54236339977429</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-0.13042110681733601</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D21" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-1.1737191029134999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8.9893470844105594E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.94230425193627199</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-5.5364752449091198E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D23" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-0.44481227762146403</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.9748617405926694E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D24" s="4">
+        <v>336.848958190215</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.44595925366634098</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-1.8809790670198102E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.1926403825099799E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-0.30374427559725697</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-0.117396630399542</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D26" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E26" s="4">
+        <v>-1.0565058914168199</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.12801688390980501</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.34193120918693</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-0.18784568689605699</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D28" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-1.5091924759608499</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.17544934737731099</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D29" s="4">
+        <v>336.848958190166</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.12178940490344</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-4.0878239406522601E-3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6.1926403825099799E-2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-6.6011001578544698E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-0.15955056735336701</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D31" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-1.43586842155553</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.141348270216195</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.4816768646028</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-0.31803003537673602</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D33" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-2.5551214108297402</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.13731269615899599</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D34" s="4">
+        <v>336.84895819011598</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.87795098706538399</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-2.5614572756231802E-2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>6.1926403825099799E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-0.41362926270635098</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-0.101064810525964</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D36" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E36" s="4">
+        <v>-0.90952838571440298</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.101837400180251</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.06750595226659</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-0.18168166185176299</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D38" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-1.4596693787197099</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.220314577661441</v>
+      </c>
+      <c r="C39" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.0729129426767101</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.380586151865204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7.5056354368244399E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D40" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.69893870807894198</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.20016972422326201</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>336.84895819011598</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.3980132290865599</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.111611316147138</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D42" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.00444120633548</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1.3024476417793701E-2</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4.4409725714972502E-2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.29327982121273499</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.25843799072714002</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D44" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3.6046522886251302</v>
+      </c>
+      <c r="F44" s="4">
+        <v>6.4399475441035206E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-5.7424580078720901E-2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D45" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-0.53474835208860305</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.30587045419464698</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D46" s="4">
+        <v>336.84895819006698</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.1362418468133999</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.126333282876683</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D47" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1.13693090838291</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-2.9129460536031299E-2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4.4409725714972398E-2</v>
+      </c>
+      <c r="D48" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-0.65592525211680097</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.27176937703353099</v>
+      </c>
+      <c r="C49" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>336.84895819069902</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.7905963598689398</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3.2579741419924597E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-0.18760892855940101</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D50" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-1.7470491773160299</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.26773380297633198</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D51" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.86989016389458</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.104806534061104</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D52" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.943201864633467</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2.93562962913715E-2</v>
+      </c>
+      <c r="C53" s="4">
+        <v>4.4409725714972398E-2</v>
+      </c>
+      <c r="D53" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.66103304667504903</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.23225850699758699</v>
+      </c>
+      <c r="C54" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D54" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3.2395049831719098</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.22515805548585799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-5.1260555034427099E-2</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D55" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-0.47734780636148899</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="4">
+        <v>-0.14525822329319699</v>
+      </c>
+      <c r="C56" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E56" s="4">
+        <v>-1.5958295475603199</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="4">
+        <v>-2.0144853438179001E-2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D57" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E57" s="4">
+        <v>-0.15336040381618599</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-0.108703261514304</v>
+      </c>
+      <c r="C58" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E58" s="4">
+        <v>-1.13947703389835</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="4">
+        <v>-0.207290101243648</v>
+      </c>
+      <c r="C59" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D59" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E59" s="4">
+        <v>-2.8912496020995402</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.65789416461893402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3.8123413065699101E-2</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2.1103100342896901E-2</v>
+      </c>
+      <c r="D60" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1.8065313838367401</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="4">
+        <v>-0.277739157740162</v>
+      </c>
+      <c r="C61" s="4">
+        <v>9.1023645673978706E-2</v>
+      </c>
+      <c r="D61" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-3.0512858025369201</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.40337352720109398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="4">
+        <v>8.5555876533205302E-2</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D62" s="4">
+        <v>336.84895818993601</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.65132684207635805</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="4">
+        <v>-9.3981294784757904E-2</v>
+      </c>
+      <c r="C63" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D63" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E63" s="4">
+        <v>-0.98515468194273603</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="4">
+        <v>-0.24944403819747299</v>
+      </c>
+      <c r="C64" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E64" s="4">
+        <v>-3.4792060588404299</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.10070705809505701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5.1454799372089702E-2</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2.1103100342896901E-2</v>
+      </c>
+      <c r="D65" s="4">
+        <v>696.00000000002001</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2.4382578169092999</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="4">
+        <v>-0.407923506220842</v>
+      </c>
+      <c r="C66" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E66" s="4">
+        <v>-4.4815114050903899</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1.89164126846204E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="4">
+        <v>4.7419225314890803E-2</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D67" s="4">
+        <v>336.84895818985399</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.36099699435687699</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="4">
+        <v>-0.11550804360033699</v>
+      </c>
+      <c r="C68" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D68" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E68" s="4">
+        <v>-1.21080785506877</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="4">
+        <v>-0.19095828137007001</v>
+      </c>
+      <c r="C69" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D69" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E69" s="4">
+        <v>-2.66345595721371</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1.1943929336145499E-2</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2.1103100342896901E-2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.565979839079227</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="4">
+        <v>-0.27157513269586803</v>
+      </c>
+      <c r="C71" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D71" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E71" s="4">
+        <v>-2.9835668598528202</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.498305184845871</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.125113369855018</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D72" s="4">
+        <v>336.84895819018999</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.81362620338100899</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="4">
+        <v>3.65549617788931E-2</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D73" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.29369039123197499</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="4">
+        <v>-6.2031877950450703E-2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D74" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E74" s="4">
+        <v>-0.57765236533713504</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.18338163635889601</v>
+      </c>
+      <c r="C75" s="4">
+        <v>9.1023645673978706E-2</v>
+      </c>
+      <c r="D75" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2.0146593228721899</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="4">
+        <v>-0.13248093444696499</v>
+      </c>
+      <c r="C76" s="4">
+        <v>5.8748545017203599E-2</v>
+      </c>
+      <c r="D76" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E76" s="4">
+        <v>-2.2550504767083202</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.230814099826402</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D77" s="4">
+        <v>336.84895819014901</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1.5010098436816199</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5.1276928508438901E-2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D78" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.41196982466858501</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="4">
+        <v>-0.104185814904276</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D79" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E79" s="4">
+        <v>-0.97019765324700402</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.19671302266528701</v>
+      </c>
+      <c r="C80" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D80" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2.1611200167685798</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="4">
+        <v>-0.26266528292764502</v>
+      </c>
+      <c r="C81" s="4">
+        <v>5.8748545017203703E-2</v>
+      </c>
+      <c r="D81" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E81" s="4">
+        <v>-4.4710091603243596</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1.69946915189379E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.192677448608088</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.15377254239737001</v>
+      </c>
+      <c r="D82" s="4">
+        <v>336.84895819009199</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.25300294580668</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2.97501796928594E-2</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D83" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.23901931469840501</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="4">
+        <v>-4.5700058076872899E-2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D84" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E84" s="4">
+        <v>-0.425567426239081</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.15720215262934201</v>
+      </c>
+      <c r="C85" s="4">
+        <v>9.1023645673978706E-2</v>
+      </c>
+      <c r="D85" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.7270474222972401</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="4">
+        <v>-0.12631690940267201</v>
+      </c>
+      <c r="C86" s="4">
+        <v>5.8748545017203599E-2</v>
+      </c>
+      <c r="D86" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E86" s="4">
+        <v>-2.15012830301893</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="4">
+        <v>-8.8558408076124806E-2</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D87" s="4">
+        <v>336.848958190215</v>
+      </c>
+      <c r="E87" s="4">
+        <v>-0.56622543987735097</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="4">
+        <v>-0.18714524780546901</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D88" s="4">
+        <v>336.84895819012502</v>
+      </c>
+      <c r="E88" s="4">
+        <v>-1.30704847203023</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B89" s="4">
+        <v>5.8268266503878001E-2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D89" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.44358947103423002</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" s="4">
+        <v>-0.25759430430198299</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D90" s="4">
+        <v>336.84895819018999</v>
+      </c>
+      <c r="E90" s="4">
+        <v>-1.67516450132119</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.10570072997138399</v>
+      </c>
+      <c r="C91" s="4">
+        <v>8.7577160158449505E-2</v>
+      </c>
+      <c r="D91" s="4">
+        <v>696.00000000072896</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1.20694402262125</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="4">
+        <v>-7.3836441346578893E-2</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D92" s="4">
+        <v>336.848958190215</v>
+      </c>
+      <c r="E92" s="4">
+        <v>-0.47209601424301401</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="4">
+        <v>-0.22929918475929401</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D93" s="4">
+        <v>336.84895819011598</v>
+      </c>
+      <c r="E93" s="4">
+        <v>-1.6014574379625499</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="4">
+        <v>7.1599652810268699E-2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D94" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.54507974961341599</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="4">
+        <v>-0.38777865278266299</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D95" s="4">
+        <v>336.84895819018999</v>
+      </c>
+      <c r="E95" s="4">
+        <v>-2.5217678444867402</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="4">
+        <v>6.7564078753069801E-2</v>
+      </c>
+      <c r="C96" s="4">
+        <v>8.7577160158449394E-2</v>
+      </c>
+      <c r="D96" s="4">
+        <v>696.00000000048101</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.77148058501587802</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" s="4">
+        <v>-9.5363190162158398E-2</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D97" s="4">
+        <v>336.84895819020699</v>
+      </c>
+      <c r="E97" s="4">
+        <v>-0.60973390862288002</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="4">
+        <v>-0.170813427931891</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D98" s="4">
+        <v>336.84895819012502</v>
+      </c>
+      <c r="E98" s="4">
+        <v>-1.19298476770672</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="4">
+        <v>3.2088782774324497E-2</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D99" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0.24428813539609201</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" s="4">
+        <v>-0.25143027925768902</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D100" s="4">
+        <v>336.84895819018999</v>
+      </c>
+      <c r="E100" s="4">
+        <v>-1.6350791587223501</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" s="4">
+        <v>-9.8586839729343803E-2</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D101" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E101" s="4">
+        <v>-0.88722799483880199</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.14682667458000301</v>
+      </c>
+      <c r="C102" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D102" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1.5391039911490101</v>
+      </c>
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="4">
+        <v>-0.16903589622585799</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D103" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E103" s="4">
+        <v>-1.3580705895713601</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.19425913804750899</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D104" s="4">
+        <v>336.848958190166</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1.24205559111445</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1.4721966729545901E-2</v>
+      </c>
+      <c r="C105" s="4">
+        <v>6.1926403825099799E-2</v>
+      </c>
+      <c r="D105" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0.237733274018712</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" s="4">
+        <v>-0.14074077668316901</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D106" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E106" s="4">
+        <v>-1.26659052497751</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.16015806088639301</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1.6788496465648799</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" s="4">
+        <v>-0.29922024470653802</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D108" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E108" s="4">
+        <v>-2.4039995244402501</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.156122486829195</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D109" s="4">
+        <v>336.84895819011598</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.99821717327639503</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="4">
+        <v>-6.8047820860336703E-3</v>
+      </c>
+      <c r="C110" s="4">
+        <v>6.1926403825099799E-2</v>
+      </c>
+      <c r="D110" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E110" s="4">
+        <v>-0.109884987109094</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="4">
+        <v>-8.2255019855765998E-2</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D111" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E111" s="4">
+        <v>-0.74025048913638503</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.120647190850449</v>
+      </c>
+      <c r="C112" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D112" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1.2646787342286701</v>
+      </c>
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="4">
+        <v>-0.16287187118156499</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D113" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E113" s="4">
+        <v>-1.3085474923302201</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.24541351430934699</v>
+      </c>
+      <c r="C114" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D114" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E114" s="4">
+        <v>3.4229889480479501</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0.12105527273130499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="4">
+        <v>-7.0449056496514603E-2</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D115" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E115" s="4">
+        <v>-0.65603469483040999</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.29284597777685301</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D116" s="4">
+        <v>336.84895819005902</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2.0452770897570698</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.11330880645888999</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D117" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1.01971769688623</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B118" s="4">
+        <v>-4.2153936953825001E-2</v>
+      </c>
+      <c r="C118" s="4">
+        <v>4.4409725714972502E-2</v>
+      </c>
+      <c r="D118" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E118" s="4">
+        <v>-0.94920507332953497</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.25874490061573702</v>
+      </c>
+      <c r="C119" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D119" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E119" s="4">
+        <v>3.6089330192917699</v>
+      </c>
+      <c r="F119" s="4">
+        <v>6.3739466067931502E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="4">
+        <v>-0.20063340497719501</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D120" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E120" s="4">
+        <v>-1.86833552005784</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.25470932655853801</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D121" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1.7789254068382501</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="4">
+        <v>9.17820576433101E-2</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D122" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0.82598865313679104</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1.6331819873577801E-2</v>
+      </c>
+      <c r="C123" s="4">
+        <v>4.4409725714972398E-2</v>
+      </c>
+      <c r="D123" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.36775322546231398</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.21923403057979299</v>
+      </c>
+      <c r="C124" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D124" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E124" s="4">
+        <v>3.0578416425947399</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0.39729634943111802</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="4">
+        <v>-6.4285031452220795E-2</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D125" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E125" s="4">
+        <v>-0.59863414910329504</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B126" s="4">
+        <v>-0.315862570805861</v>
+      </c>
+      <c r="C126" s="4">
+        <v>9.1023645673978706E-2</v>
+      </c>
+      <c r="D126" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E126" s="4">
+        <v>-3.4701155778487802</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0.10346697701546</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="4">
+        <v>4.7432463467506202E-2</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D127" s="4">
+        <v>336.84895818993601</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0.36109777485831401</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="4">
+        <v>-0.132104707850457</v>
+      </c>
+      <c r="C128" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D128" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E128" s="4">
+        <v>-1.3847816391934</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="4">
+        <v>-0.28756745126317201</v>
+      </c>
+      <c r="C129" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D129" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E129" s="4">
+        <v>-4.01094540478885</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1.3714370823924101E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1.3331386306390599E-2</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2.1103100342896901E-2</v>
+      </c>
+      <c r="D130" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0.63172643307256404</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="4">
+        <v>-0.446046919286541</v>
+      </c>
+      <c r="C131" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D131" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E131" s="4">
+        <v>-4.9003411804022496</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2.8146772703991301E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="4">
+        <v>9.2958122491917199E-3</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D132" s="4">
+        <v>336.84895818985399</v>
+      </c>
+      <c r="E132" s="4">
+        <v>7.0767927138831996E-2</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="4">
+        <v>-0.153631456666037</v>
+      </c>
+      <c r="C133" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D133" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E133" s="4">
+        <v>-1.6104348123194301</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="4">
+        <v>-0.22908169443576901</v>
+      </c>
+      <c r="C134" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D134" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E134" s="4">
+        <v>-3.1951953031621301</v>
+      </c>
+      <c r="F134" s="4">
+        <v>0.25848515977256997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="4">
+        <v>-2.6179483729553501E-2</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2.1103100342896801E-2</v>
+      </c>
+      <c r="D135" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E135" s="4">
+        <v>-1.2405515447575199</v>
+      </c>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="4">
+        <v>-0.30969854576156702</v>
+      </c>
+      <c r="C136" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D136" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E136" s="4">
+        <v>-3.4023966351646799</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0.12947553066332801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0.36329503427336801</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D137" s="4">
+        <v>336.84895819014901</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2.3625481416217999</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.183757862955404</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D138" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1.47635002300797</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="4">
+        <v>2.8295119542689699E-2</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D139" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.26348940692054201</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0.32919395711225202</v>
+      </c>
+      <c r="C140" s="4">
+        <v>9.1023645673978706E-2</v>
+      </c>
+      <c r="D140" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E140" s="4">
+        <v>3.6165762717451799</v>
+      </c>
+      <c r="F140" s="4">
+        <v>6.2300257235315598E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="4">
+        <v>-0.13018434848068</v>
+      </c>
+      <c r="C141" s="4">
+        <v>5.8748545017203599E-2</v>
+      </c>
+      <c r="D141" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E141" s="4">
+        <v>-2.2159586836160399</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0.32515838305505301</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.15377254239737001</v>
+      </c>
+      <c r="D142" s="4">
+        <v>336.84895819009199</v>
+      </c>
+      <c r="E142" s="4">
+        <v>2.11454124374686</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0.16223111413982499</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D143" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1.30339951303779</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="4">
+        <v>8.6780876370092394E-2</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D144" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0.80811963392846498</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0.28968308707630802</v>
+      </c>
+      <c r="C145" s="4">
+        <v>9.1023645673978706E-2</v>
+      </c>
+      <c r="D145" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E145" s="4">
+        <v>3.18250367727383</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0.268138868889851</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" s="4">
+        <v>6.1640250442937996E-3</v>
+      </c>
+      <c r="C146" s="4">
+        <v>5.8748545017203599E-2</v>
+      </c>
+      <c r="D146" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0.104922173689387</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="4">
+        <v>-0.17953717131796301</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D147" s="4">
+        <v>336.848958190166</v>
+      </c>
+      <c r="E147" s="4">
+        <v>-1.1479261654801101</v>
+      </c>
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" s="4">
+        <v>-0.33499991473067797</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D148" s="4">
+        <v>336.84895819006698</v>
+      </c>
+      <c r="E148" s="4">
+        <v>-2.3396860556893899</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149" s="4">
+        <v>-3.4101077161115601E-2</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D149" s="4">
+        <v>336.84895818993601</v>
+      </c>
+      <c r="E149" s="4">
+        <v>-0.25960749627912799</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" s="4">
+        <v>-0.49347938275404701</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D150" s="4">
+        <v>336.84895819014901</v>
+      </c>
+      <c r="E150" s="4">
+        <v>-3.2091514847873501</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0.24807585185461001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="4">
+        <v>-3.8136651218314499E-2</v>
+      </c>
+      <c r="C151" s="4">
+        <v>8.7577160158449296E-2</v>
+      </c>
+      <c r="D151" s="4">
+        <v>696.00000000026796</v>
+      </c>
+      <c r="E151" s="4">
+        <v>-0.43546343760537098</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152" s="4">
+        <v>-0.20106392013354299</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D152" s="4">
+        <v>336.848958190166</v>
+      </c>
+      <c r="E152" s="4">
+        <v>-1.28556405985998</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="4">
+        <v>-0.27651415790327499</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D153" s="4">
+        <v>336.84895819006698</v>
+      </c>
+      <c r="E153" s="4">
+        <v>-1.93121338543356</v>
+      </c>
+      <c r="F153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" s="4">
+        <v>-7.3611947197059796E-2</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D154" s="4">
+        <v>336.84895818993601</v>
+      </c>
+      <c r="E154" s="4">
+        <v>-0.56039911049645197</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="4">
+        <v>-0.35713100922907398</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0.15377254239737101</v>
+      </c>
+      <c r="D155" s="4">
+        <v>336.84895819014901</v>
+      </c>
+      <c r="E155" s="4">
+        <v>-2.32246279902296</v>
+      </c>
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" s="4">
+        <v>-0.15546274341271499</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D156" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E156" s="4">
+        <v>-1.3990802270249401</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0.14543609415684799</v>
+      </c>
+      <c r="C157" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D157" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1.5245272946092701</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B158" s="4">
+        <v>-0.31394221143608397</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D158" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E158" s="4">
+        <v>-2.5222789578768601</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0.14140052009964901</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D159" s="4">
+        <v>336.84895819011598</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.90408774764205801</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B160" s="4">
+        <v>-2.1526748815579502E-2</v>
+      </c>
+      <c r="C160" s="4">
+        <v>6.1926403825099799E-2</v>
+      </c>
+      <c r="D160" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E160" s="4">
+        <v>-0.34761826112780603</v>
+      </c>
+      <c r="F160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B161" s="4">
+        <v>-9.6976986585311897E-2</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D161" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E161" s="4">
+        <v>-0.87274019118381596</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0.10592522412090299</v>
+      </c>
+      <c r="C162" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D162" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1.11035638227306</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B163" s="4">
+        <v>-0.17759383791111</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D163" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E163" s="4">
+        <v>-1.42682692576683</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0.30089883756956198</v>
+      </c>
+      <c r="C164" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D164" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E164" s="4">
+        <v>4.19688947603266</v>
+      </c>
+      <c r="F164" s="4">
+        <v>6.4121235772348004E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" s="4">
+        <v>-0.15847946802337001</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D165" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E165" s="4">
+        <v>-1.4757902321479699</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0.29686326351236297</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D166" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E166" s="4">
+        <v>2.07333437277057</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A167" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0.13393599459713501</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D167" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1.2053511832754999</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B168" s="4">
+        <v>5.8485756827402799E-2</v>
+      </c>
+      <c r="C168" s="4">
+        <v>4.4409725714972398E-2</v>
+      </c>
+      <c r="D168" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1.31695829879185</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0.26138796753361798</v>
+      </c>
+      <c r="C169" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D169" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E169" s="4">
+        <v>3.64579809933563</v>
+      </c>
+      <c r="F169" s="4">
+        <v>5.6178204144982702E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B170" s="4">
+        <v>-2.2131094498395801E-2</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D170" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E170" s="4">
+        <v>-0.20608886119342701</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A171" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B171" s="4">
+        <v>-0.45937830559293202</v>
+      </c>
+      <c r="C171" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D171" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E171" s="4">
+        <v>-5.0468018742986498</v>
+      </c>
+      <c r="F171" s="4">
+        <v>1.39947336121431E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B172" s="4">
+        <v>-4.0355740571989297E-3</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D172" s="4">
+        <v>336.84895818985399</v>
+      </c>
+      <c r="E172" s="4">
+        <v>-3.07223514403538E-2</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A173" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B173" s="4">
+        <v>-0.166962842972427</v>
+      </c>
+      <c r="C173" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D173" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E173" s="4">
+        <v>-1.7501804677352999</v>
+      </c>
+      <c r="F173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B174" s="4">
+        <v>-0.24241308074216</v>
+      </c>
+      <c r="C174" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D174" s="4">
+        <v>336.84895819070698</v>
+      </c>
+      <c r="E174" s="4">
+        <v>-3.3811393744059499</v>
+      </c>
+      <c r="F174" s="4">
+        <v>0.13875181358484301</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B175" s="4">
+        <v>-3.9510870035944202E-2</v>
+      </c>
+      <c r="C175" s="4">
+        <v>2.1103100342896801E-2</v>
+      </c>
+      <c r="D175" s="4">
+        <v>696.00000000002001</v>
+      </c>
+      <c r="E175" s="4">
+        <v>-1.87227797783009</v>
+      </c>
+      <c r="F175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B176" s="4">
+        <v>-0.32302993206795799</v>
+      </c>
+      <c r="C176" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D176" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E176" s="4">
+        <v>-3.5488573290610801</v>
+      </c>
+      <c r="F176" s="4">
+        <v>7.8648417716436103E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A177" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0.45534273153573301</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0.15377254239737001</v>
+      </c>
+      <c r="D177" s="4">
+        <v>336.84895819009199</v>
+      </c>
+      <c r="E177" s="4">
+        <v>2.9611445869124098</v>
+      </c>
+      <c r="F177" s="4">
+        <v>0.53176655594806699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0.292415462620505</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D178" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E178" s="4">
+        <v>2.3493284479066801</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0.21696522485077199</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D179" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E179" s="4">
+        <v>2.0204204591559001</v>
+      </c>
+      <c r="F179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0.41986743555698802</v>
+      </c>
+      <c r="C180" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D180" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E180" s="4">
+        <v>4.6127292798272999</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1.0629787750702801E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A181" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0.136348373524974</v>
+      </c>
+      <c r="C181" s="4">
+        <v>5.8748545017203703E-2</v>
+      </c>
+      <c r="D181" s="4">
+        <v>695.99999999998499</v>
+      </c>
+      <c r="E181" s="4">
+        <v>2.3208808573054198</v>
+      </c>
+      <c r="F181" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B182" s="4">
+        <v>-0.16292726891522799</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0.15640132328796</v>
+      </c>
+      <c r="D182" s="4">
+        <v>336.84895819011598</v>
+      </c>
+      <c r="E182" s="4">
+        <v>-1.0417256420219201</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A183" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B183" s="4">
+        <v>-0.23837750668496099</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0.14318156656789999</v>
+      </c>
+      <c r="D183" s="4">
+        <v>336.84895819000201</v>
+      </c>
+      <c r="E183" s="4">
+        <v>-1.6648617025147401</v>
+      </c>
+      <c r="F183" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="4">
+        <v>-3.5475295978745297E-2</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0.13135628843494701</v>
+      </c>
+      <c r="D184" s="4">
+        <v>336.84895818985399</v>
+      </c>
+      <c r="E184" s="4">
+        <v>-0.27006926277697102</v>
+      </c>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" s="4">
+        <v>-0.31899435801075898</v>
+      </c>
+      <c r="C185" s="4">
+        <v>0.15377254239737001</v>
+      </c>
+      <c r="D185" s="4">
+        <v>336.84895819009199</v>
+      </c>
+      <c r="E185" s="4">
+        <v>-2.0744559011480201</v>
+      </c>
+      <c r="F185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B186" s="4">
+        <v>-7.5450237769732406E-2</v>
+      </c>
+      <c r="C186" s="4">
+        <v>0.111117818985475</v>
+      </c>
+      <c r="D186" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E186" s="4">
+        <v>-0.67901114743437496</v>
+      </c>
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0.127451972936483</v>
+      </c>
+      <c r="C187" s="4">
+        <v>9.5397501029407597E-2</v>
+      </c>
+      <c r="D187" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E187" s="4">
+        <v>1.3360095553990901</v>
+      </c>
+      <c r="F187" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B188" s="4">
+        <v>-0.15606708909553099</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0.124467680490165</v>
+      </c>
+      <c r="D188" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E188" s="4">
+        <v>-1.25387641579665</v>
+      </c>
+      <c r="F188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0.202902210706215</v>
+      </c>
+      <c r="C189" s="4">
+        <v>7.1695678260749199E-2</v>
+      </c>
+      <c r="D189" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E189" s="4">
+        <v>2.8300479977089101</v>
+      </c>
+      <c r="F189" s="4">
+        <v>0.78933135492836004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B190" s="4">
+        <v>-8.06168513257986E-2</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0.107386174925895</v>
+      </c>
+      <c r="D190" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E190" s="4">
+        <v>-0.75071908820134903</v>
+      </c>
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B191" s="4">
+        <v>-0.28351906203201399</v>
+      </c>
+      <c r="C191" s="4">
+        <v>9.1023645673978804E-2</v>
+      </c>
+      <c r="D191" s="4">
+        <v>336.848958190715</v>
+      </c>
+      <c r="E191" s="4">
+        <v>-3.1147847345897302</v>
+      </c>
+      <c r="F191" s="4">
+        <v>0.33379903835568198</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14718,7 +21009,7 @@
   <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F277"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -20270,12 +26561,335 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3.3869397012737203E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.14441014826867099</v>
+      </c>
+      <c r="D2" s="4">
+        <v>231.00000000001401</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.23453612795774001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.01473044084069E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.13640124180013399</v>
+      </c>
+      <c r="D3" s="4">
+        <v>231.00000000001401</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.29433239667446698</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.2894227302840406E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.110790226923816</v>
+      </c>
+      <c r="D4" s="4">
+        <v>231.000000000021</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.74820884119897801</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-0.14960295998699299</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.115468918960203</v>
+      </c>
+      <c r="D5" s="4">
+        <v>231.000000000021</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1.29561237200597</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.130339342004959</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.163793090036258</v>
+      </c>
+      <c r="D6" s="4">
+        <v>231.00000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.79575604792672505</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.27790739566961E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.129874713426853</v>
+      </c>
+      <c r="D7" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.8338180928540697E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.9024830290103197E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.102648023872452</v>
+      </c>
+      <c r="D8" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.47760130629519298</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-0.183472356999731</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.107681073865961</v>
+      </c>
+      <c r="D9" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-1.7038496219689701</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.6469944992221904E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.158399238529466</v>
+      </c>
+      <c r="D10" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.60903035827584795</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.2746922894433603E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9.1036391880162396E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.46955862388202302</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-0.18975026439539999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.6675857951019101E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-1.96274714718888</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.66138561956821595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9.0192037596552296E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.15113347282569001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.59677076103832705</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-0.23249718728983401</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.49126317688182E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>231.00000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-4.2339472686110797</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.9736076589003604E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4.74451147021187E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.1284931991413</v>
+      </c>
+      <c r="D15" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.36924222464057999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.27994230199195302</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.132548478262004</v>
+      </c>
+      <c r="D16" s="4">
+        <v>230.99999999999801</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.1119993655347802</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.50064829368424402</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20284,8 +26898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Ch-2/fig_outputs/Appendix_Pairwise_Comparison_noFCM.xlsx
+++ b/Ch-2/fig_outputs/Appendix_Pairwise_Comparison_noFCM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18009" windowHeight="8820" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18009" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table S15" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="623">
   <si>
     <t>X1</t>
   </si>
@@ -1861,28 +1861,46 @@
     <t>Table S15. Pairwise comparisons for the interaction between migratory strategy and season influencing the average relative predictor importance of modified habitats, excluding forest/cropland mosaics as a modified land cover class.</t>
   </si>
   <si>
-    <t>Table S16. Pairwise comparisons for the interaction between migratory strategy and season influencing the average exposure of forest birds to modified habitats, excluding forest/cropland mosaics as a modified land cover class.</t>
-  </si>
-  <si>
     <t>Table S17. Pairwise comparisons for the interaction between migratory strategy and season influencing the sensitivity to habitat modification in forest birds, excluding forest/cropland mosaics as a modified land cover class.</t>
   </si>
   <si>
     <t>Table S18. Pairwise comparisons for the interaction between diet and season influencing the average relative predictor importance of modified habitats, excluding forest/cropland mosaics as a modified land cover class.</t>
   </si>
   <si>
-    <t>Table S19. Pairwise comparisons for the interaction between diet and season influencing the average exposure of forest birds to modified habitats, excluding forest/cropland mosaics as a modified land cover class.</t>
-  </si>
-  <si>
     <t>Table S20. Pairwise comparisons for the interaction between diet and season influencing the sensitivity to habitat modification in forest birds, excluding forest/cropland mosaics as a modified land cover class.</t>
   </si>
   <si>
     <t>Table S21. Pairwise comparisons for the interaction between foraging strategy and season influencing the average relative predictor importance of modified habitats, excluding forest/cropland mosaics as a modified land cover class.</t>
   </si>
   <si>
-    <t>Table S22. Pairwise comparisons among foraging strategies influencing the average exposure of forest birds to modified habitats, excluding forest/cropland mosaics as a modified land cover class.</t>
-  </si>
-  <si>
     <t>Table S23. Pairwise comparisons for the interaction between foraging strategy and season influencing the sensitivity to habitat modification in forest birds, excluding forest/cropland mosaics as a modified land cover class.</t>
+  </si>
+  <si>
+    <t>breeding - postbreeding</t>
+  </si>
+  <si>
+    <t>breeding - nonbreeding</t>
+  </si>
+  <si>
+    <t>breeding - prebreeding</t>
+  </si>
+  <si>
+    <t>postbreeding - nonbreeding</t>
+  </si>
+  <si>
+    <t>postbreeding - prebreeding</t>
+  </si>
+  <si>
+    <t>nonbreeding - prebreeding</t>
+  </si>
+  <si>
+    <t>Table S22. Pairwise comparisons among foraging strategies influencing the average Modified Habitat Association (MHA) of forest birds, excluding forest/cropland mosaics as a modified land cover class.</t>
+  </si>
+  <si>
+    <t>Table S19. Pairwise comparisons for the interaction between diet and season influencing the average Modified Habitat Association (MHA) of forest birds, excluding forest/cropland mosaics as a modified land cover class.</t>
+  </si>
+  <si>
+    <t>Table S16. Pairwise comparisons for the interaction between migratory strategy and season influencing the average Modified Habitat Association (MHA) of forest birds, excluding forest/cropland mosaics as a modified land cover class.</t>
   </si>
 </sst>
 </file>
@@ -4721,15 +4739,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -4757,16 +4775,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.14488243435487499</v>
+        <v>-2.8929375110854E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E3" s="4">
-        <v>-2.21829238518428</v>
+        <v>-1.13820351208898</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -4780,16 +4798,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>1.9311050711158399E-2</v>
+        <v>1.22697495070842E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E4" s="4">
-        <v>0.230243897472624</v>
+        <v>3.7573211608392901E-2</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -4803,16 +4821,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>-7.8541638907652797E-2</v>
+        <v>-1.32830754244216E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133799E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932200298</v>
       </c>
       <c r="E5" s="4">
-        <v>-1.21130166093591</v>
+        <v>-0.52642545418963504</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -4826,19 +4844,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>7.1647987662801907E-2</v>
+        <v>-5.5918446886585101E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>2.40730901615752E-2</v>
+        <v>1.06123045649602E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>699.00000000022601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E6" s="4">
-        <v>2.97626882057562</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.271668306185469</v>
+        <v>-5.2692086383589896</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.13512536703681E-5</v>
       </c>
       <c r="I6" t="s">
         <v>596</v>
@@ -4849,19 +4867,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.25540658199071398</v>
+        <v>-9.7906121197771506E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E7" s="4">
-        <v>-3.9105256512200701</v>
+        <v>-3.8520393397817498</v>
       </c>
       <c r="F7" s="4">
-        <v>1.17026309371503E-2</v>
+        <v>1.5410188071372099E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -4869,16 +4887,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>2.8438548439970499E-2</v>
+        <v>2.4348177170970499E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>335.781066009433</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E8" s="4">
-        <v>0.33907022094346001</v>
+        <v>7.4560545233243097E-2</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -4889,16 +4907,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>-9.9794593987890298E-2</v>
+        <v>-3.6257252262630502E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E9" s="4">
-        <v>-1.53907353005563</v>
+        <v>-0.14369217880771401</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -4909,19 +4927,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>0.102845298188897</v>
+        <v>3.2499170674064499E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>2.4073090161575099E-2</v>
+        <v>1.06123045649602E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>699.00000000011903</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E10" s="4">
-        <v>4.2722100693602103</v>
+        <v>3.0624046337089101</v>
       </c>
       <c r="F10" s="4">
-        <v>2.4459948667082498E-3</v>
+        <v>0.24619217754779199</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -4929,19 +4947,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.35037542111543901</v>
+        <v>-7.2105866509399999E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E11" s="4">
-        <v>-5.3645918642722101</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1.7414772181161799E-5</v>
+        <v>-2.83694860980339</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.50883352954154804</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -4949,16 +4967,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="4">
-        <v>4.73294387225833E-2</v>
+        <v>2.5305298169764701E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>335.781066009433</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E12" s="4">
-        <v>0.56430458392316296</v>
+        <v>7.7491502364989598E-2</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -4969,16 +4987,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.105873504277934</v>
+        <v>-1.9451770469993902E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133799E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E13" s="4">
-        <v>-1.6328250004020599</v>
+        <v>-0.77089881501632695</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -4989,19 +5007,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>4.25426594201022E-2</v>
+        <v>-5.6746417147257103E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>2.4073090161575099E-2</v>
+        <v>1.06123045649602E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>699.00000000004695</v>
+        <v>701.99999999994702</v>
       </c>
       <c r="E14" s="4">
-        <v>1.7672288490826</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
+        <v>-5.3472284742583298</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.4270856110627299E-5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5009,19 +5027,19 @@
         <v>20</v>
       </c>
       <c r="B15" s="4">
-        <v>-0.20337506621276599</v>
+        <v>-8.2316229096506904E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E15" s="4">
-        <v>-3.1138720351087801</v>
+        <v>-3.23866729580386</v>
       </c>
       <c r="F15" s="4">
-        <v>0.18449028351753</v>
+        <v>0.14379862388612399</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5029,16 +5047,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="4">
-        <v>1.3786868773434199E-2</v>
+        <v>6.2403809434726501E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>335.781066009433</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E16" s="4">
-        <v>0.16437957974523401</v>
+        <v>0.19109693606271499</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -5049,16 +5067,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="4">
-        <v>-0.13370159741969201</v>
+        <v>-1.2586290345284501E-2</v>
       </c>
       <c r="C17" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133799E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932199298</v>
       </c>
       <c r="E17" s="4">
-        <v>-2.0620013699316502</v>
+        <v>-0.49881096055490898</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -5069,16 +5087,16 @@
         <v>126</v>
       </c>
       <c r="B18" s="4">
-        <v>0.16419348506603301</v>
+        <v>3.0156350061562399E-2</v>
       </c>
       <c r="C18" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E18" s="4">
-        <v>1.75150923372414</v>
+        <v>0.82558377318127696</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -5089,16 +5107,16 @@
         <v>127</v>
       </c>
       <c r="B19" s="4">
-        <v>6.6340795447221906E-2</v>
+        <v>1.5646299686432399E-2</v>
       </c>
       <c r="C19" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E19" s="4">
-        <v>0.85948991136653397</v>
+        <v>0.52023266205122498</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -5109,19 +5127,19 @@
         <v>48</v>
       </c>
       <c r="B20" s="4">
-        <v>0.216530422017677</v>
+        <v>-2.6989071775731101E-2</v>
       </c>
       <c r="C20" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>335.78106600947302</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E20" s="4">
-        <v>3.3152934547333501</v>
+        <v>-1.06186380332955</v>
       </c>
       <c r="F20" s="4">
-        <v>0.100535841197541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5129,19 +5147,19 @@
         <v>51</v>
       </c>
       <c r="B21" s="4">
-        <v>-0.110524147635839</v>
+        <v>-6.8976746086917506E-2</v>
       </c>
       <c r="C21" s="4">
-        <v>3.7261483700118801E-2</v>
+        <v>1.64974978840348E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E21" s="4">
-        <v>-2.96617677721424</v>
+        <v>-4.1810428812764702</v>
       </c>
       <c r="F21" s="4">
-        <v>0.27750980925896102</v>
+        <v>3.72644084412639E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5149,16 +5167,16 @@
         <v>49</v>
       </c>
       <c r="B22" s="4">
-        <v>0.17332098279484501</v>
+        <v>3.1364192827951103E-2</v>
       </c>
       <c r="C22" s="4">
-        <v>9.3744001975323496E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E22" s="4">
-        <v>1.8488754388837501</v>
+        <v>0.85865061934963405</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -5169,16 +5187,16 @@
         <v>50</v>
       </c>
       <c r="B23" s="4">
-        <v>4.5087840366984502E-2</v>
+        <v>2.5303649884590999E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E23" s="4">
-        <v>0.58414349209240202</v>
+        <v>0.84133535742561505</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -5189,19 +5207,19 @@
         <v>52</v>
       </c>
       <c r="B24" s="4">
-        <v>0.24772773254377201</v>
+        <v>6.1428545784918499E-2</v>
       </c>
       <c r="C24" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D24" s="4">
-        <v>335.78106600947302</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E24" s="4">
-        <v>3.7929549234022</v>
+        <v>2.4168578231294102</v>
       </c>
       <c r="F24" s="4">
-        <v>1.8180530629623399E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5209,19 +5227,19 @@
         <v>55</v>
       </c>
       <c r="B25" s="4">
-        <v>-0.20549298676056399</v>
+        <v>-4.3176491398545999E-2</v>
       </c>
       <c r="C25" s="4">
-        <v>3.7261483700118801E-2</v>
+        <v>1.64974978840348E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E25" s="4">
-        <v>-5.5148900783011197</v>
-      </c>
-      <c r="F25" s="5">
-        <v>5.7514543060482503E-6</v>
+        <v>-2.6171539285559899</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.90575411406810502</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5229,16 +5247,16 @@
         <v>53</v>
       </c>
       <c r="B26" s="4">
-        <v>0.19221187307745799</v>
+        <v>3.1459904927830497E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D26" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E26" s="4">
-        <v>2.0503911613252299</v>
+        <v>0.86127090848927701</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -5249,16 +5267,16 @@
         <v>54</v>
       </c>
       <c r="B27" s="4">
-        <v>3.90089300769405E-2</v>
+        <v>9.4776046408600705E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D27" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E27" s="4">
-        <v>0.50538709444637697</v>
+        <v>0.31512623374197402</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -5269,19 +5287,19 @@
         <v>56</v>
       </c>
       <c r="B28" s="4">
-        <v>0.18742509377497699</v>
+        <v>-2.7817042036403099E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E28" s="4">
-        <v>2.8696622897370099</v>
+        <v>-1.09443964207446</v>
       </c>
       <c r="F28" s="4">
-        <v>0.37789923136339798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5289,19 +5307,19 @@
         <v>59</v>
       </c>
       <c r="B29" s="4">
-        <v>-5.8492631857891102E-2</v>
+        <v>-5.3386853985652898E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>3.7261483700118801E-2</v>
+        <v>1.64974978840348E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E29" s="4">
-        <v>-1.5697880505414401</v>
+        <v>-3.23605763497731</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>0.140839569160669</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5309,16 +5327,16 @@
         <v>57</v>
       </c>
       <c r="B30" s="4">
-        <v>0.15866930312830901</v>
+        <v>3.5169756054326699E-2</v>
       </c>
       <c r="C30" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E30" s="4">
-        <v>1.69258085621388</v>
+        <v>0.96283468808133599</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -5329,16 +5347,16 @@
         <v>58</v>
       </c>
       <c r="B31" s="4">
-        <v>1.11808369351824E-2</v>
+        <v>1.6343084765569501E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E31" s="4">
-        <v>0.144855310848191</v>
+        <v>0.54340046299213196</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -5349,16 +5367,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="4">
-        <v>-9.7852689618811203E-2</v>
+        <v>-1.451005037513E-2</v>
       </c>
       <c r="C32" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D32" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E32" s="4">
-        <v>-1.04749574874228</v>
+        <v>-0.39863395090825299</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -5369,16 +5387,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="4">
-        <v>5.2336936951643501E-2</v>
+        <v>-5.71454218372935E-2</v>
       </c>
       <c r="C33" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E33" s="4">
-        <v>0.62400852888664904</v>
+        <v>-1.7499436528054699</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -5389,19 +5407,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="4">
-        <v>-0.27471763270187199</v>
+        <v>-9.9133096148479899E-2</v>
       </c>
       <c r="C34" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D34" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E34" s="4">
-        <v>-2.9305089063104699</v>
+        <v>-2.7139450032357102</v>
       </c>
       <c r="F34" s="4">
-        <v>0.31819591151395799</v>
+        <v>0.70230656547859704</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5409,16 +5427,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="4">
-        <v>9.12749772881216E-3</v>
+        <v>1.2078427663886301E-3</v>
       </c>
       <c r="C35" s="4">
-        <v>5.1631026347204199E-2</v>
+        <v>2.2859603626326701E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E35" s="4">
-        <v>0.176783193644695</v>
+        <v>5.2837432622742E-2</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -5429,16 +5447,16 @@
         <v>25</v>
       </c>
       <c r="B36" s="4">
-        <v>-0.119105644699049</v>
+        <v>-4.8527001769714702E-3</v>
       </c>
       <c r="C36" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E36" s="4">
-        <v>-1.2750048768151301</v>
+        <v>-0.13331801021414399</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -5449,16 +5467,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="4">
-        <v>8.3534247477739104E-2</v>
+        <v>3.12721957233561E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E37" s="4">
-        <v>0.99597121872835004</v>
+        <v>0.95763717645117696</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -5469,19 +5487,19 @@
         <v>30</v>
       </c>
       <c r="B38" s="4">
-        <v>-0.36968647182659697</v>
+        <v>-7.3332841460108406E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D38" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E38" s="4">
-        <v>-3.94357467183778</v>
+        <v>-2.0076170964704598</v>
       </c>
       <c r="F38" s="4">
-        <v>1.0360522357271199E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5489,16 +5507,16 @@
         <v>28</v>
       </c>
       <c r="B39" s="4">
-        <v>2.8018388011425002E-2</v>
+        <v>1.3035548662680501E-3</v>
       </c>
       <c r="C39" s="4">
-        <v>5.1631026347204199E-2</v>
+        <v>2.2859603626326701E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E39" s="4">
-        <v>0.54266571853538503</v>
+        <v>5.7024386230686203E-2</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -5509,16 +5527,16 @@
         <v>29</v>
       </c>
       <c r="B40" s="4">
-        <v>-0.12518455498909301</v>
+        <v>-2.0678745420702398E-2</v>
       </c>
       <c r="C40" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E40" s="4">
-        <v>-1.3400785371367101</v>
+        <v>-0.56810622801209099</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -5529,16 +5547,16 @@
         <v>31</v>
       </c>
       <c r="B41" s="4">
-        <v>2.32316087089438E-2</v>
+        <v>-5.7973392097965502E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E41" s="4">
-        <v>0.27698835313064701</v>
+        <v>-1.77529828762643</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -5549,16 +5567,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="4">
-        <v>-0.22268611692392401</v>
+        <v>-8.3543204047215297E-2</v>
       </c>
       <c r="C42" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E42" s="4">
-        <v>-2.3754705605862898</v>
+        <v>-2.2871439507815499</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -5569,16 +5587,16 @@
         <v>32</v>
       </c>
       <c r="B43" s="4">
-        <v>-5.52418193772416E-3</v>
+        <v>5.0134059927642201E-3</v>
       </c>
       <c r="C43" s="4">
-        <v>5.1631026347204199E-2</v>
+        <v>2.2859603626326701E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E43" s="4">
-        <v>-0.106993455845243</v>
+        <v>0.21931290125216499</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -5589,16 +5607,16 @@
         <v>33</v>
       </c>
       <c r="B44" s="4">
-        <v>-0.153012648130851</v>
+        <v>-1.3813265295993001E-2</v>
       </c>
       <c r="C44" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E44" s="4">
-        <v>-1.6379733561258401</v>
+        <v>-0.37949120626924099</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -5609,16 +5627,16 @@
         <v>36</v>
       </c>
       <c r="B45" s="4">
-        <v>0.15018962657045501</v>
+        <v>-4.26353714621635E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D45" s="4">
-        <v>335.78106600947302</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E45" s="4">
-        <v>2.3162865793269001</v>
+        <v>-1.6896948989123599</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -5629,19 +5647,19 @@
         <v>39</v>
       </c>
       <c r="B46" s="4">
-        <v>-0.176864943083061</v>
+        <v>-8.4623045773349906E-2</v>
       </c>
       <c r="C46" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D46" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E46" s="4">
-        <v>-2.2914050582230798</v>
+        <v>-2.8136794805053702</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>0.53602059975882399</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5649,16 +5667,16 @@
         <v>37</v>
       </c>
       <c r="B47" s="4">
-        <v>0.106980187347623</v>
+        <v>1.5717893141518599E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E47" s="4">
-        <v>1.1452039988152301</v>
+        <v>0.43181696003596198</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -5669,16 +5687,16 @@
         <v>38</v>
       </c>
       <c r="B48" s="4">
-        <v>-2.1252955080237401E-2</v>
+        <v>9.6573501981585298E-3</v>
       </c>
       <c r="C48" s="4">
-        <v>3.6879304533717301E-2</v>
+        <v>1.6328288304519101E-2</v>
       </c>
       <c r="D48" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E48" s="4">
-        <v>-0.57628405277563399</v>
+        <v>0.59144902503257102</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -5689,19 +5707,19 @@
         <v>40</v>
       </c>
       <c r="B49" s="4">
-        <v>0.18138693709654999</v>
+        <v>4.57822460984861E-2</v>
       </c>
       <c r="C49" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>335.78106600947302</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E49" s="4">
-        <v>2.7974244137617599</v>
+        <v>1.8144096096831901</v>
       </c>
       <c r="F49" s="4">
-        <v>0.45765346747816898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5709,19 +5727,19 @@
         <v>43</v>
       </c>
       <c r="B50" s="4">
-        <v>-0.27183378220778598</v>
+        <v>-5.8822791084978399E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E50" s="4">
-        <v>-3.5217906538680701</v>
+        <v>-1.95583222926231</v>
       </c>
       <c r="F50" s="4">
-        <v>4.87897616802591E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5729,16 +5747,16 @@
         <v>41</v>
       </c>
       <c r="B51" s="4">
-        <v>0.125871077630236</v>
+        <v>1.5813605241398101E-2</v>
       </c>
       <c r="C51" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E51" s="4">
-        <v>1.34742764068015</v>
+        <v>0.43444645418231298</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -5749,16 +5767,16 @@
         <v>42</v>
       </c>
       <c r="B52" s="4">
-        <v>-2.73318653702814E-2</v>
+        <v>-6.1686950455723602E-3</v>
       </c>
       <c r="C52" s="4">
-        <v>3.6879304533717301E-2</v>
+        <v>1.6328288304519101E-2</v>
       </c>
       <c r="D52" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E52" s="4">
-        <v>-0.74111661583240995</v>
+        <v>-0.37779189897480497</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -5769,16 +5787,16 @@
         <v>44</v>
       </c>
       <c r="B53" s="4">
-        <v>0.121084298327755</v>
+        <v>-4.3463341722835502E-2</v>
       </c>
       <c r="C53" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E53" s="4">
-        <v>1.8674121614665899</v>
+        <v>-1.72250843091477</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -5789,16 +5807,16 @@
         <v>47</v>
       </c>
       <c r="B54" s="4">
-        <v>-0.124833427305113</v>
+        <v>-6.9033153672085304E-2</v>
       </c>
       <c r="C54" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E54" s="4">
-        <v>-1.6173015509802</v>
+        <v>-2.29532234613671</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -5809,16 +5827,16 @@
         <v>45</v>
       </c>
       <c r="B55" s="4">
-        <v>9.2328507681087094E-2</v>
+        <v>1.9523456367894199E-2</v>
       </c>
       <c r="C55" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E55" s="4">
-        <v>0.98836035739446304</v>
+        <v>0.53636702465609798</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -5829,16 +5847,16 @@
         <v>46</v>
       </c>
       <c r="B56" s="4">
-        <v>-5.5159958512039503E-2</v>
+        <v>6.9678507913704902E-4</v>
       </c>
       <c r="C56" s="4">
-        <v>3.6879304533717301E-2</v>
+        <v>1.6328288304519101E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E56" s="4">
-        <v>-1.4956886852789999</v>
+        <v>4.2673491926536203E-2</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -5849,19 +5867,19 @@
         <v>62</v>
       </c>
       <c r="B57" s="4">
-        <v>-0.32705456965351598</v>
+        <v>-4.1987674311186399E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E57" s="4">
-        <v>-5.0075267207691398</v>
+        <v>-1.6519720243632201</v>
       </c>
       <c r="F57" s="4">
-        <v>1.01728467804839E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5869,16 +5887,16 @@
         <v>60</v>
       </c>
       <c r="B58" s="4">
-        <v>-4.3209439222831401E-2</v>
+        <v>5.8353264603682203E-2</v>
       </c>
       <c r="C58" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E58" s="4">
-        <v>-0.51518220541581305</v>
+        <v>1.78693098643032</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -5889,19 +5907,19 @@
         <v>61</v>
       </c>
       <c r="B59" s="4">
-        <v>-0.17144258165069201</v>
+        <v>5.2292721660322103E-2</v>
       </c>
       <c r="C59" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E59" s="4">
-        <v>-2.6440584484466201</v>
+        <v>2.0724281742942798</v>
       </c>
       <c r="F59" s="4">
-        <v>0.68610959839927199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5909,19 +5927,19 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>3.1197310526095499E-2</v>
+        <v>8.84176175606496E-2</v>
       </c>
       <c r="C60" s="4">
-        <v>2.4073090161575099E-2</v>
+        <v>1.06123045649602E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>699.00000000004695</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E60" s="4">
-        <v>1.2959412487845801</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
+        <v>8.3316132720679104</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4.9785825082009199E-14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5929,19 +5947,19 @@
         <v>66</v>
       </c>
       <c r="B61" s="4">
-        <v>-0.42202340877824102</v>
+        <v>-1.6187419622814898E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E61" s="4">
-        <v>-6.4615929338212803</v>
-      </c>
-      <c r="F61" s="5">
-        <v>4.3353374627595203E-8</v>
+        <v>-0.63688129438486196</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5949,16 +5967,16 @@
         <v>64</v>
       </c>
       <c r="B62" s="4">
-        <v>-2.4318548940218499E-2</v>
+        <v>5.8448976703561598E-2</v>
       </c>
       <c r="C62" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E62" s="4">
-        <v>-0.28994784243610999</v>
+        <v>1.78986194356207</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -5969,19 +5987,19 @@
         <v>65</v>
       </c>
       <c r="B63" s="4">
-        <v>-0.17752149194073599</v>
+        <v>3.6466676416591202E-2</v>
       </c>
       <c r="C63" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E63" s="4">
-        <v>-2.73780991879305</v>
+        <v>1.4452215380856701</v>
       </c>
       <c r="F63" s="4">
-        <v>0.540709801300431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -5989,16 +6007,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>-2.91053282426997E-2</v>
+        <v>-8.2797026067198099E-4</v>
       </c>
       <c r="C64" s="4">
-        <v>2.4073090161575099E-2</v>
+        <v>1.06123045649602E-2</v>
       </c>
       <c r="D64" s="4">
-        <v>699.00000000004695</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E64" s="4">
-        <v>-1.20903997149302</v>
+        <v>-7.8019835899336795E-2</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -6009,19 +6027,19 @@
         <v>70</v>
       </c>
       <c r="B65" s="4">
-        <v>-0.27502305387556802</v>
+        <v>-2.63977822099218E-2</v>
       </c>
       <c r="C65" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D65" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E65" s="4">
-        <v>-4.2108731046578498</v>
+        <v>-1.0385999803853301</v>
       </c>
       <c r="F65" s="4">
-        <v>3.5652571060652899E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6029,16 +6047,16 @@
         <v>68</v>
       </c>
       <c r="B66" s="4">
-        <v>-5.7861118889367701E-2</v>
+        <v>6.21588278300578E-2</v>
       </c>
       <c r="C66" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D66" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E66" s="4">
-        <v>-0.68987284661403903</v>
+        <v>1.9034673772597901</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -6049,19 +6067,19 @@
         <v>69</v>
       </c>
       <c r="B67" s="4">
-        <v>-0.20534958508249401</v>
+        <v>4.3332156541300598E-2</v>
       </c>
       <c r="C67" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D67" s="4">
-        <v>335.78106600947302</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E67" s="4">
-        <v>-3.1669862883226401</v>
+        <v>1.7173093925470799</v>
       </c>
       <c r="F67" s="4">
-        <v>0.15937348981740199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6069,19 +6087,19 @@
         <v>128</v>
       </c>
       <c r="B68" s="4">
-        <v>0.28384513043068399</v>
+        <v>0.100340938914869</v>
       </c>
       <c r="C68" s="4">
-        <v>9.3744001975323496E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E68" s="4">
-        <v>3.0278751114700801</v>
+        <v>2.7470118494040698</v>
       </c>
       <c r="F68" s="4">
-        <v>0.24146095639863299</v>
+        <v>0.64406879364806602</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6089,19 +6107,19 @@
         <v>129</v>
       </c>
       <c r="B69" s="4">
-        <v>0.155611988002824</v>
+        <v>9.4280395971508502E-2</v>
       </c>
       <c r="C69" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E69" s="4">
-        <v>2.0160586389489499</v>
+        <v>3.13478217587976</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
+        <v>0.20213109164233101</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6109,19 +6127,19 @@
         <v>90</v>
       </c>
       <c r="B70" s="4">
-        <v>0.35825188017961102</v>
+        <v>0.130405291871836</v>
       </c>
       <c r="C70" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E70" s="4">
-        <v>5.4851881894379897</v>
+        <v>5.1306936508221899</v>
       </c>
       <c r="F70" s="5">
-        <v>9.4435992836917707E-6</v>
+        <v>5.3673380189215497E-5</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6129,19 +6147,19 @@
         <v>93</v>
       </c>
       <c r="B71" s="4">
-        <v>-9.4968839124724896E-2</v>
+        <v>2.58002546883715E-2</v>
       </c>
       <c r="C71" s="4">
-        <v>3.7261483700118801E-2</v>
+        <v>1.64974978840348E-2</v>
       </c>
       <c r="D71" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E71" s="4">
-        <v>-2.5487133010868801</v>
+        <v>1.56388895272048</v>
       </c>
       <c r="F71" s="4">
-        <v>0.87095633372007097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6149,19 +6167,19 @@
         <v>91</v>
       </c>
       <c r="B72" s="4">
-        <v>0.30273602071329703</v>
+        <v>0.100436651014748</v>
       </c>
       <c r="C72" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D72" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E72" s="4">
-        <v>3.2293908339115598</v>
+        <v>2.7496321385437099</v>
       </c>
       <c r="F72" s="4">
-        <v>0.13222204618896199</v>
+        <v>0.64406879364806602</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6169,19 +6187,19 @@
         <v>92</v>
       </c>
       <c r="B73" s="4">
-        <v>0.14953307771277999</v>
+        <v>7.8454350727777594E-2</v>
       </c>
       <c r="C73" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E73" s="4">
-        <v>1.9373022413029299</v>
+        <v>2.6085730521961201</v>
       </c>
       <c r="F73" s="4">
-        <v>1</v>
+        <v>0.92640830568090704</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6189,19 +6207,19 @@
         <v>94</v>
       </c>
       <c r="B74" s="4">
-        <v>0.29794924141081602</v>
+        <v>4.1159704050514397E-2</v>
       </c>
       <c r="C74" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E74" s="4">
-        <v>4.5618955557727903</v>
+        <v>1.6193961856183201</v>
       </c>
       <c r="F74" s="4">
-        <v>7.97090990024767E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6209,16 +6227,16 @@
         <v>97</v>
       </c>
       <c r="B75" s="4">
-        <v>5.2031515777947901E-2</v>
+        <v>1.55898921012646E-2</v>
       </c>
       <c r="C75" s="4">
-        <v>3.7261483700118801E-2</v>
+        <v>1.64974978840348E-2</v>
       </c>
       <c r="D75" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E75" s="4">
-        <v>1.3963887266727899</v>
+        <v>0.94498524629916603</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -6229,19 +6247,19 @@
         <v>95</v>
       </c>
       <c r="B76" s="4">
-        <v>0.26919345076414802</v>
+        <v>0.104146502141244</v>
       </c>
       <c r="C76" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D76" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E76" s="4">
-        <v>2.8715805288002199</v>
+        <v>2.8511959181357698</v>
       </c>
       <c r="F76" s="4">
-        <v>0.37789923136339798</v>
+        <v>0.491640409986208</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6249,19 +6267,19 @@
         <v>96</v>
       </c>
       <c r="B77" s="4">
-        <v>0.121704984571021</v>
+        <v>8.5319830852486997E-2</v>
       </c>
       <c r="C77" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321962</v>
       </c>
       <c r="E77" s="4">
-        <v>1.5767704577047399</v>
+        <v>2.83684728144627</v>
       </c>
       <c r="F77" s="4">
-        <v>1</v>
+        <v>0.50883352954154804</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6269,16 +6287,16 @@
         <v>71</v>
       </c>
       <c r="B78" s="4">
-        <v>-0.12823314242786099</v>
+        <v>-6.0605429433600996E-3</v>
       </c>
       <c r="C78" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D78" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E78" s="4">
-        <v>-1.3727131268880799</v>
+        <v>-0.16650101934185199</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -6289,16 +6307,16 @@
         <v>73</v>
       </c>
       <c r="B79" s="4">
-        <v>7.4406749748926901E-2</v>
+        <v>3.00643529569674E-2</v>
       </c>
       <c r="C79" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E79" s="4">
-        <v>0.88714489525751405</v>
+        <v>0.920649842826327</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -6309,36 +6327,36 @@
         <v>76</v>
       </c>
       <c r="B80" s="4">
-        <v>-0.37881396955540902</v>
+        <v>-7.4540684226496998E-2</v>
       </c>
       <c r="C80" s="4">
-        <v>9.3744001975323496E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E80" s="4">
-        <v>-4.0409408769973902</v>
+        <v>-2.0406839426388199</v>
       </c>
       <c r="F80" s="4">
-        <v>7.1327341985486801E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="4">
-        <v>1.8890890282612802E-2</v>
+      <c r="B81" s="5">
+        <v>9.5712099879422002E-5</v>
       </c>
       <c r="C81" s="4">
-        <v>5.1631026347204199E-2</v>
+        <v>2.2859603626326701E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E81" s="4">
-        <v>0.36588252489069001</v>
+        <v>4.1869536079441596E-3</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -6349,16 +6367,16 @@
         <v>75</v>
       </c>
       <c r="B82" s="4">
-        <v>-0.134312052717905</v>
+        <v>-2.1886588187091001E-2</v>
       </c>
       <c r="C82" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E82" s="4">
-        <v>-1.4377867872096599</v>
+        <v>-0.60128923713979998</v>
       </c>
       <c r="F82" s="4">
         <v>1</v>
@@ -6369,16 +6387,16 @@
         <v>77</v>
       </c>
       <c r="B83" s="4">
-        <v>1.41041109801316E-2</v>
+        <v>-5.9181234864354199E-2</v>
       </c>
       <c r="C83" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E83" s="4">
-        <v>0.168162029659812</v>
+        <v>-1.8122856212512799</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -6389,16 +6407,16 @@
         <v>80</v>
       </c>
       <c r="B84" s="4">
-        <v>-0.23181361465273601</v>
+        <v>-8.4751046813603903E-2</v>
       </c>
       <c r="C84" s="4">
-        <v>9.3744001975323496E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D84" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E84" s="4">
-        <v>-2.4728367657459001</v>
+        <v>-2.3202107969499099</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -6409,16 +6427,16 @@
         <v>78</v>
       </c>
       <c r="B85" s="4">
-        <v>-1.4651679666536299E-2</v>
+        <v>3.8055632263756002E-3</v>
       </c>
       <c r="C85" s="4">
-        <v>5.1631026347204199E-2</v>
+        <v>2.2859603626326701E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E85" s="4">
-        <v>-0.28377664948993803</v>
+        <v>0.166475468629423</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -6429,16 +6447,16 @@
         <v>79</v>
       </c>
       <c r="B86" s="4">
-        <v>-0.16214014585966299</v>
+        <v>-1.50211080623816E-2</v>
       </c>
       <c r="C86" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E86" s="4">
-        <v>-1.7356816061987901</v>
+        <v>-0.41267421539694998</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -6449,19 +6467,19 @@
         <v>82</v>
       </c>
       <c r="B87" s="4">
-        <v>0.20263989217678799</v>
+        <v>3.6124895900327497E-2</v>
       </c>
       <c r="C87" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E87" s="4">
-        <v>3.1251962828814799</v>
+        <v>1.4316763343012699</v>
       </c>
       <c r="F87" s="4">
-        <v>0.179659643969281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6469,19 +6487,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="4">
-        <v>-0.25058082712754798</v>
+        <v>-6.8480141283136897E-2</v>
       </c>
       <c r="C88" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D88" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E88" s="4">
-        <v>-3.2464442345939402</v>
+        <v>-2.2769349246366999</v>
       </c>
       <c r="F88" s="4">
-        <v>0.12606464572770401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6489,16 +6507,16 @@
         <v>83</v>
       </c>
       <c r="B89" s="4">
-        <v>0.147124032710474</v>
+        <v>6.1562550432395198E-3</v>
       </c>
       <c r="C89" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E89" s="4">
-        <v>1.57493676875301</v>
+        <v>0.16913051348820299</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -6509,16 +6527,16 @@
         <v>84</v>
       </c>
       <c r="B90" s="4">
-        <v>-6.0789102900440104E-3</v>
+        <v>-1.58260452437309E-2</v>
       </c>
       <c r="C90" s="4">
-        <v>3.6879304533717301E-2</v>
+        <v>1.6328288304519101E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E90" s="4">
-        <v>-0.16483256305677599</v>
+        <v>-0.96924092400737605</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -6529,16 +6547,16 @@
         <v>86</v>
       </c>
       <c r="B91" s="4">
-        <v>0.142337253407992</v>
+        <v>-5.3120691920994098E-2</v>
       </c>
       <c r="C91" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D91" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E91" s="4">
-        <v>2.1951840305863199</v>
+        <v>-2.1052417062966899</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -6549,19 +6567,19 @@
         <v>89</v>
       </c>
       <c r="B92" s="4">
-        <v>-0.103580472224876</v>
+        <v>-7.8690503870243803E-2</v>
       </c>
       <c r="C92" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D92" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321962</v>
       </c>
       <c r="E92" s="4">
-        <v>-1.3419551317060701</v>
+        <v>-2.6164250415110999</v>
       </c>
       <c r="F92" s="4">
-        <v>1</v>
+        <v>0.914989775827595</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6569,16 +6587,16 @@
         <v>87</v>
       </c>
       <c r="B93" s="4">
-        <v>0.113581462761324</v>
+        <v>9.8661061697357007E-3</v>
       </c>
       <c r="C93" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D93" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E93" s="4">
-        <v>1.21586948546732</v>
+        <v>0.27105108396198802</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -6589,16 +6607,16 @@
         <v>88</v>
       </c>
       <c r="B94" s="4">
-        <v>-3.3907003431802099E-2</v>
+        <v>-8.9605651190214804E-3</v>
       </c>
       <c r="C94" s="4">
-        <v>3.6879304533717301E-2</v>
+        <v>1.6328288304519101E-2</v>
       </c>
       <c r="D94" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E94" s="4">
-        <v>-0.91940463250336701</v>
+        <v>-0.548775533106035</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -6609,19 +6627,19 @@
         <v>100</v>
       </c>
       <c r="B95" s="4">
-        <v>-0.45322071930433599</v>
+        <v>-0.10460503718346401</v>
       </c>
       <c r="C95" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D95" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E95" s="4">
-        <v>-6.9392544024901301</v>
-      </c>
-      <c r="F95" s="5">
-        <v>2.4473008795603901E-9</v>
+        <v>-4.1156029208438296</v>
+      </c>
+      <c r="F95" s="4">
+        <v>5.36180192738216E-3</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6629,16 +6647,16 @@
         <v>98</v>
       </c>
       <c r="B96" s="4">
-        <v>-5.5515859466314099E-2</v>
+        <v>-2.9968640857087999E-2</v>
       </c>
       <c r="C96" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D96" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E96" s="4">
-        <v>-0.66191053227781105</v>
+        <v>-0.91771888569458104</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -6649,19 +6667,19 @@
         <v>99</v>
       </c>
       <c r="B97" s="4">
-        <v>-0.208718802466832</v>
+        <v>-5.1950941144058398E-2</v>
       </c>
       <c r="C97" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D97" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E97" s="4">
-        <v>-3.2189477532279098</v>
+        <v>-2.0588829705098899</v>
       </c>
       <c r="F97" s="4">
-        <v>0.135569209249009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6669,19 +6687,19 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>-6.0302638768795297E-2</v>
+        <v>-8.9245587821321595E-2</v>
       </c>
       <c r="C98" s="4">
-        <v>2.4073090161575099E-2</v>
+        <v>1.06123045649602E-2</v>
       </c>
       <c r="D98" s="4">
-        <v>699.00000000001103</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E98" s="4">
-        <v>-2.5049812202776001</v>
-      </c>
-      <c r="F98" s="4">
-        <v>0.97283497330233504</v>
+        <v>-8.40963310796724</v>
+      </c>
+      <c r="F98" s="5">
+        <v>2.7496719534551101E-14</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6689,19 +6707,19 @@
         <v>104</v>
       </c>
       <c r="B99" s="4">
-        <v>-0.306220364401663</v>
+        <v>-0.11481539977057099</v>
       </c>
       <c r="C99" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D99" s="4">
-        <v>335.78106600946501</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E99" s="4">
-        <v>-4.6885345733266997</v>
+        <v>-4.5173216068443001</v>
       </c>
       <c r="F99" s="4">
-        <v>4.5285423585560901E-4</v>
+        <v>9.6446478418456001E-4</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6709,16 +6727,16 @@
         <v>102</v>
       </c>
       <c r="B100" s="4">
-        <v>-8.90584294154632E-2</v>
+        <v>-2.62587897305918E-2</v>
       </c>
       <c r="C100" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D100" s="4">
-        <v>335.78106600944102</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E100" s="4">
-        <v>-1.0618355364557399</v>
+        <v>-0.80411345199685502</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -6729,19 +6747,19 @@
         <v>103</v>
       </c>
       <c r="B101" s="4">
-        <v>-0.23654689560858999</v>
+        <v>-4.5085461019349002E-2</v>
       </c>
       <c r="C101" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D101" s="4">
-        <v>335.78106600947302</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E101" s="4">
-        <v>-3.6481241227574999</v>
+        <v>-1.7867951160484701</v>
       </c>
       <c r="F101" s="4">
-        <v>3.0919778481076601E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6749,19 +6767,19 @@
         <v>131</v>
       </c>
       <c r="B102" s="4">
-        <v>0.39770485983802201</v>
+        <v>7.4636396326376503E-2</v>
       </c>
       <c r="C102" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D102" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E102" s="4">
-        <v>4.2424565994388699</v>
+        <v>2.04330423177846</v>
       </c>
       <c r="F102" s="4">
-        <v>3.1493278908038E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6769,19 +6787,19 @@
         <v>132</v>
       </c>
       <c r="B103" s="4">
-        <v>0.244501916837504</v>
+        <v>5.2654096039405997E-2</v>
       </c>
       <c r="C103" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D103" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E103" s="4">
-        <v>3.16768783694791</v>
+        <v>1.75072580095306</v>
       </c>
       <c r="F103" s="4">
-        <v>0.15937348981740199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6789,19 +6807,19 @@
         <v>116</v>
       </c>
       <c r="B104" s="4">
-        <v>0.392918080535541</v>
+        <v>1.53594493621429E-2</v>
       </c>
       <c r="C104" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D104" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E104" s="4">
-        <v>6.0159617688249298</v>
-      </c>
-      <c r="F104" s="5">
-        <v>5.5160910561713501E-7</v>
+        <v>0.60430545563995597</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6809,19 +6827,19 @@
         <v>119</v>
       </c>
       <c r="B105" s="4">
-        <v>0.14700035490267299</v>
+        <v>-1.02103625871069E-2</v>
       </c>
       <c r="C105" s="4">
-        <v>3.7261483700118801E-2</v>
+        <v>1.64974978840348E-2</v>
       </c>
       <c r="D105" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E105" s="4">
-        <v>3.9451020277596802</v>
+        <v>-0.61890370642131098</v>
       </c>
       <c r="F105" s="4">
-        <v>9.3963275692192007E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6829,19 +6847,19 @@
         <v>117</v>
       </c>
       <c r="B106" s="4">
-        <v>0.364162289888873</v>
+        <v>7.8346247452872594E-2</v>
       </c>
       <c r="C106" s="4">
-        <v>9.3744001975323593E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D106" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E106" s="4">
-        <v>3.8846462943275299</v>
+        <v>2.1448680113705199</v>
       </c>
       <c r="F106" s="4">
-        <v>1.2838200310999699E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6849,19 +6867,19 @@
         <v>118</v>
       </c>
       <c r="B107" s="4">
-        <v>0.216673823695746</v>
+        <v>5.9519576164115399E-2</v>
       </c>
       <c r="C107" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D107" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321962</v>
       </c>
       <c r="E107" s="4">
-        <v>2.80715605334973</v>
+        <v>1.97900003020322</v>
       </c>
       <c r="F107" s="4">
-        <v>0.44965467817866001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6869,16 +6887,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="4">
-        <v>-0.15320294300051801</v>
+        <v>-2.1982300286970399E-2</v>
       </c>
       <c r="C108" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D108" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E108" s="4">
-        <v>-1.6400104290745801</v>
+        <v>-0.60391873128615103</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -6889,16 +6907,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>-4.78677930248119E-3</v>
+        <v>-5.92769469642336E-2</v>
       </c>
       <c r="C109" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D109" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E109" s="4">
-        <v>-5.7072333319891498E-2</v>
+        <v>-1.8152165783830301</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -6909,19 +6927,19 @@
         <v>110</v>
       </c>
       <c r="B110" s="4">
-        <v>-0.25070450493534902</v>
+        <v>-8.4846758913483394E-2</v>
       </c>
       <c r="C110" s="4">
-        <v>9.3744001975323496E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D110" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E110" s="4">
-        <v>-2.6743524881873801</v>
+        <v>-2.32283108608955</v>
       </c>
       <c r="F110" s="4">
-        <v>0.636146736675548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -6929,16 +6947,16 @@
         <v>108</v>
       </c>
       <c r="B111" s="4">
-        <v>-3.3542569949149101E-2</v>
+        <v>3.70985112649617E-3</v>
       </c>
       <c r="C111" s="4">
-        <v>5.1631026347204199E-2</v>
+        <v>2.2859603626326701E-2</v>
       </c>
       <c r="D111" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E111" s="4">
-        <v>-0.64965917438062804</v>
+        <v>0.16228851502147901</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -6949,16 +6967,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="4">
-        <v>-0.181031036142276</v>
+        <v>-1.5116820162260999E-2</v>
       </c>
       <c r="C112" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D112" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E112" s="4">
-        <v>-1.93790524806371</v>
+        <v>-0.41530370954330098</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -6969,16 +6987,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="4">
-        <v>0.14841616369803601</v>
+        <v>-3.7294646677263198E-2</v>
       </c>
       <c r="C113" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D113" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E113" s="4">
-        <v>2.2889355009327401</v>
+        <v>-1.47803507008808</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -6989,16 +7007,16 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>-9.7501561934831601E-2</v>
+        <v>-6.2864458626512895E-2</v>
       </c>
       <c r="C114" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D114" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321962</v>
       </c>
       <c r="E114" s="4">
-        <v>-1.2631987340600399</v>
+        <v>-2.09021591782746</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -7009,16 +7027,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>0.11966037305136799</v>
+        <v>2.5692151413466601E-2</v>
       </c>
       <c r="C115" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D115" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E115" s="4">
-        <v>1.28094314578889</v>
+        <v>0.70583930175993603</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -7029,16 +7047,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>-2.78280931417581E-2</v>
+        <v>6.8654801247094097E-3</v>
       </c>
       <c r="C116" s="4">
-        <v>3.6879304533717301E-2</v>
+        <v>1.6328288304519101E-2</v>
       </c>
       <c r="D116" s="4">
-        <v>698.99999999997601</v>
+        <v>702.00000000001899</v>
       </c>
       <c r="E116" s="4">
-        <v>-0.75457206944659105</v>
+        <v>0.420465390901341</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -7049,19 +7067,19 @@
         <v>122</v>
       </c>
       <c r="B117" s="4">
-        <v>-0.24591772563286801</v>
+        <v>-2.5569811949249802E-2</v>
       </c>
       <c r="C117" s="4">
-        <v>6.5312595996148998E-2</v>
+        <v>2.54166981595049E-2</v>
       </c>
       <c r="D117" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E117" s="4">
-        <v>-3.7652419396614998</v>
+        <v>-1.0060241416404301</v>
       </c>
       <c r="F117" s="4">
-        <v>2.0031510112855099E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -7069,16 +7087,16 @@
         <v>120</v>
       </c>
       <c r="B118" s="4">
-        <v>-2.87557906466679E-2</v>
+        <v>6.2986798090729795E-2</v>
       </c>
       <c r="C118" s="4">
-        <v>8.3872150024972697E-2</v>
+        <v>3.2655578221435499E-2</v>
       </c>
       <c r="D118" s="4">
-        <v>335.78106600944898</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E118" s="4">
-        <v>-0.342852670858038</v>
+        <v>1.92882201208076</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -7089,19 +7107,19 @@
         <v>121</v>
       </c>
       <c r="B119" s="4">
-        <v>-0.176244256839795</v>
+        <v>4.41601268019726E-2</v>
       </c>
       <c r="C119" s="4">
-        <v>6.4840692818804502E-2</v>
+        <v>2.5232585770133702E-2</v>
       </c>
       <c r="D119" s="4">
-        <v>335.78106600945699</v>
+        <v>377.54562932198297</v>
       </c>
       <c r="E119" s="4">
-        <v>-2.7181118704623399</v>
+        <v>1.7501229245495</v>
       </c>
       <c r="F119" s="4">
-        <v>0.566318823931931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -7109,16 +7127,16 @@
         <v>133</v>
       </c>
       <c r="B120" s="4">
-        <v>0.21716193498620001</v>
+        <v>8.85566100399795E-2</v>
       </c>
       <c r="C120" s="4">
-        <v>9.3744001975323496E-2</v>
+        <v>3.6527304728094401E-2</v>
       </c>
       <c r="D120" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E120" s="4">
-        <v>2.31654218307603</v>
+        <v>2.4243948656816099</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -7129,16 +7147,16 @@
         <v>134</v>
       </c>
       <c r="B121" s="4">
-        <v>6.9673468793073498E-2</v>
+        <v>6.9729938751222298E-2</v>
       </c>
       <c r="C121" s="4">
-        <v>7.7186241013282295E-2</v>
+        <v>3.00755812307913E-2</v>
       </c>
       <c r="D121" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321962</v>
       </c>
       <c r="E121" s="4">
-        <v>0.90266695046185796</v>
+        <v>2.31849014707762</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -7149,16 +7167,16 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>-0.147488466193127</v>
+        <v>-1.8826671288757198E-2</v>
       </c>
       <c r="C122" s="4">
-        <v>9.3415834609641299E-2</v>
+        <v>3.6399434473832697E-2</v>
       </c>
       <c r="D122" s="4">
-        <v>335.781066009433</v>
+        <v>377.545629321972</v>
       </c>
       <c r="E122" s="4">
-        <v>-1.57883796477802</v>
+        <v>-0.51722428001708498</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -7180,7 +7198,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -9632,7 +9650,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -13479,15 +13497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -13515,16 +13531,16 @@
         <v>135</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.209264021829554</v>
+        <v>4.5665304600069102E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222902E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>336.848958190264</v>
+        <v>382.558222903022</v>
       </c>
       <c r="E3" s="4">
-        <v>-1.33799393400442</v>
+        <v>0.74911781281486101</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -13538,16 +13554,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="4">
-        <v>-0.33968512864688999</v>
+        <v>4.6446236125990699E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509801E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>336.84895819018197</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E4" s="4">
-        <v>-2.3724082421308199</v>
+        <v>0.83227644673746604</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -13561,16 +13577,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.11937055098544901</v>
+        <v>7.6569252430031598E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>0.13135628843494801</v>
+        <v>5.1188249516104102E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>336.84895819009199</v>
+        <v>382.55822290297999</v>
       </c>
       <c r="E5" s="4">
-        <v>-0.90875398816224295</v>
+        <v>1.4958365084538101</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -13584,16 +13600,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.26462877427864601</v>
+        <v>2.1749800747430399E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996597E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>336.84895819025598</v>
+        <v>382.558222903022</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.7209104444329599</v>
+        <v>0.36289474243731001</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -13607,16 +13623,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.139515404423628</v>
+        <v>-8.2881966112221594E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>8.7577160158450296E-2</v>
+        <v>3.9069904100492901E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>696.00000000292698</v>
+        <v>699.00000000033299</v>
       </c>
       <c r="E7" s="4">
-        <v>-1.5930569588144601</v>
+        <v>-2.1213762362722499</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -13630,16 +13646,16 @@
         <v>140</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.228073812499752</v>
+        <v>2.64241901034892E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222902E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>336.848958190264</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E8" s="4">
-        <v>-1.4582601202154299</v>
+        <v>0.43347639239660302</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -13650,16 +13666,16 @@
         <v>141</v>
       </c>
       <c r="B9" s="4">
-        <v>-0.32666065222909602</v>
+        <v>-2.9361720247670902E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509801E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>336.84895819018197</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E9" s="4">
-        <v>-2.2814434850744898</v>
+        <v>-5.2613667405777997E-2</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -13670,16 +13686,16 @@
         <v>142</v>
       </c>
       <c r="B10" s="4">
-        <v>-8.1247137919749607E-2</v>
+        <v>3.3032253364659599E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>0.13135628843494801</v>
+        <v>5.1188249516104102E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>336.84895819008398</v>
+        <v>382.55822290299102</v>
       </c>
       <c r="E10" s="4">
-        <v>-0.61852492094419997</v>
+        <v>0.64530929806981296</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -13690,16 +13706,16 @@
         <v>143</v>
       </c>
       <c r="B11" s="4">
-        <v>-0.39710970872561102</v>
+        <v>3.7670624411258402E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996597E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>336.84895819025598</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E11" s="4">
-        <v>-2.5824487423731401</v>
+        <v>0.62853318528866597</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -13710,16 +13726,16 @@
         <v>144</v>
       </c>
       <c r="B12" s="4">
-        <v>-3.3814674452243398E-2</v>
+        <v>-3.4014891340701299E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>8.7577160158450101E-2</v>
+        <v>3.9069904100493102E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>696.00000000232399</v>
+        <v>699.00000000018997</v>
       </c>
       <c r="E12" s="4">
-        <v>-0.38611293619322301</v>
+        <v>-0.87061619739865304</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -13730,16 +13746,16 @@
         <v>145</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.21335184577020699</v>
+        <v>2.15699989122927E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222902E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>336.848958190264</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E13" s="4">
-        <v>-1.36413069458109</v>
+        <v>0.35384567231313702</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -13750,16 +13766,16 @@
         <v>146</v>
       </c>
       <c r="B14" s="4">
-        <v>-0.36881458918292098</v>
+        <v>8.2033246231322798E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509801E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>336.84895819018197</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E14" s="4">
-        <v>-2.5758524510068099</v>
+        <v>0.14699649397325301</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -13770,16 +13786,16 @@
         <v>147</v>
       </c>
       <c r="B15" s="4">
-        <v>-6.7915751613358902E-2</v>
+        <v>9.2776874674015006E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.13135628843494801</v>
+        <v>5.1188249516104102E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>336.84895819008398</v>
+        <v>382.55822290299102</v>
       </c>
       <c r="E15" s="4">
-        <v>-0.51703464236501495</v>
+        <v>1.8124642970029099</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -13790,19 +13806,19 @@
         <v>148</v>
       </c>
       <c r="B16" s="4">
-        <v>-0.52729405720629097</v>
+        <v>7.0635669870923207E-2</v>
       </c>
       <c r="C16" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996597E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>336.84895819025598</v>
+        <v>382.558222903022</v>
       </c>
       <c r="E16" s="4">
-        <v>-3.4290520855386801</v>
+        <v>1.17855393354461</v>
       </c>
       <c r="F16" s="4">
-        <v>0.119153630256379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -13810,16 +13826,16 @@
         <v>149</v>
       </c>
       <c r="B17" s="4">
-        <v>-7.1951325670557897E-2</v>
+        <v>-3.8337720565408802E-2</v>
       </c>
       <c r="C17" s="4">
-        <v>8.7577160158449893E-2</v>
+        <v>3.9069904100492998E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>696.00000000126101</v>
+        <v>699.00000000026205</v>
       </c>
       <c r="E17" s="4">
-        <v>-0.82157637379859305</v>
+        <v>-0.981259653640281</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -13830,16 +13846,16 @@
         <v>150</v>
       </c>
       <c r="B18" s="4">
-        <v>-0.234878594585786</v>
+        <v>3.6491142408481003E-2</v>
       </c>
       <c r="C18" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222902E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>336.848958190264</v>
+        <v>382.558222903022</v>
       </c>
       <c r="E18" s="4">
-        <v>-1.50176858896095</v>
+        <v>0.59862000325112397</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -13850,16 +13866,16 @@
         <v>151</v>
       </c>
       <c r="B19" s="4">
-        <v>-0.310328832355518</v>
+        <v>1.8618308739401099E-2</v>
       </c>
       <c r="C19" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509801E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>336.84895819018197</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E19" s="4">
-        <v>-2.1673797807509798</v>
+        <v>0.333624016375759</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -13870,16 +13886,16 @@
         <v>152</v>
       </c>
       <c r="B20" s="4">
-        <v>-0.107426621649303</v>
+        <v>2.9513115583570001E-2</v>
       </c>
       <c r="C20" s="4">
-        <v>0.13135628843494801</v>
+        <v>5.1188249516104102E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>336.84895819009199</v>
+        <v>382.55822290299102</v>
       </c>
       <c r="E20" s="4">
-        <v>-0.81782625658233798</v>
+        <v>0.57656036028903501</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -13890,16 +13906,16 @@
         <v>153</v>
       </c>
       <c r="B21" s="4">
-        <v>-0.39094568368131699</v>
+        <v>1.37114732184089E-2</v>
       </c>
       <c r="C21" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996597E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>336.84895819025598</v>
+        <v>382.55822290301199</v>
       </c>
       <c r="E21" s="4">
-        <v>-2.54236339977429</v>
+        <v>0.22877550005226699</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -13910,16 +13926,16 @@
         <v>154</v>
       </c>
       <c r="B22" s="4">
-        <v>-0.13042110681733601</v>
+        <v>7.8093152592159003E-4</v>
       </c>
       <c r="C22" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E22" s="4">
-        <v>-1.1737191029134999</v>
+        <v>1.8031565566197401E-2</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -13930,16 +13946,16 @@
         <v>155</v>
       </c>
       <c r="B23" s="4">
-        <v>8.9893470844105594E-2</v>
+        <v>3.0903947829962499E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E23" s="4">
-        <v>0.94230425193627199</v>
+        <v>0.83143064842148595</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -13950,16 +13966,16 @@
         <v>156</v>
       </c>
       <c r="B24" s="4">
-        <v>-5.5364752449091198E-2</v>
+        <v>-2.39155038526387E-2</v>
       </c>
       <c r="C24" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D24" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E24" s="4">
-        <v>-0.44481227762146403</v>
+        <v>-0.49297753291426599</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -13970,16 +13986,16 @@
         <v>157</v>
       </c>
       <c r="B25" s="4">
-        <v>6.9748617405926694E-2</v>
+        <v>-0.128547270712291</v>
       </c>
       <c r="C25" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>336.848958190215</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E25" s="4">
-        <v>0.44595925366634098</v>
+        <v>-2.10875742804452</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -13990,16 +14006,16 @@
         <v>158</v>
       </c>
       <c r="B26" s="4">
-        <v>-1.8809790670198102E-2</v>
+        <v>-1.9241114496579899E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>6.1926403825099799E-2</v>
+        <v>2.7626594129766702E-2</v>
       </c>
       <c r="D26" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E26" s="4">
-        <v>-0.30374427559725697</v>
+        <v>-0.69647074142404897</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -14010,16 +14026,16 @@
         <v>159</v>
       </c>
       <c r="B27" s="4">
-        <v>-0.117396630399542</v>
+        <v>-4.8601476624836201E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D27" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E27" s="4">
-        <v>-1.0565058914168199</v>
+        <v>-1.1221991727642699</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -14030,16 +14046,16 @@
         <v>160</v>
       </c>
       <c r="B28" s="4">
-        <v>0.12801688390980501</v>
+        <v>-1.2633051235409601E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E28" s="4">
-        <v>1.34193120918693</v>
+        <v>-0.33987586433908301</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -14050,16 +14066,16 @@
         <v>161</v>
       </c>
       <c r="B29" s="4">
-        <v>-0.18784568689605699</v>
+        <v>-7.9946801888107592E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E29" s="4">
-        <v>-1.5091924759608499</v>
+        <v>-0.164796766992791</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -14070,16 +14086,16 @@
         <v>162</v>
       </c>
       <c r="B30" s="4">
-        <v>0.17544934737731099</v>
+        <v>-7.9680195940770498E-2</v>
       </c>
       <c r="C30" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222701E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>336.848958190166</v>
+        <v>382.558222902588</v>
       </c>
       <c r="E30" s="4">
-        <v>1.12178940490344</v>
+        <v>-1.3071160836561999</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -14090,16 +14106,16 @@
         <v>163</v>
       </c>
       <c r="B31" s="4">
-        <v>-4.0878239406522601E-3</v>
+        <v>-2.4095305687776399E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>6.1926403825099799E-2</v>
+        <v>2.7626594129766702E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E31" s="4">
-        <v>-6.6011001578544698E-2</v>
+        <v>-0.87217793024347301</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -14110,16 +14126,16 @@
         <v>164</v>
       </c>
       <c r="B32" s="4">
-        <v>-0.15955056735336701</v>
+        <v>-3.7461979976936899E-2</v>
       </c>
       <c r="C32" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D32" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E32" s="4">
-        <v>-1.43586842155553</v>
+        <v>-0.86499024020901905</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -14130,16 +14146,16 @@
         <v>165</v>
       </c>
       <c r="B33" s="4">
-        <v>0.141348270216195</v>
+        <v>4.7111570073945799E-2</v>
       </c>
       <c r="C33" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E33" s="4">
-        <v>1.4816768646028</v>
+        <v>1.26747571120213</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -14150,16 +14166,16 @@
         <v>166</v>
       </c>
       <c r="B34" s="4">
-        <v>-0.31803003537673602</v>
+        <v>2.4970365270854101E-2</v>
       </c>
       <c r="C34" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D34" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E34" s="4">
-        <v>-2.5551214108297402</v>
+        <v>0.51472171119804899</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -14170,16 +14186,16 @@
         <v>167</v>
       </c>
       <c r="B35" s="4">
-        <v>0.13731269615899599</v>
+        <v>-8.4003025165477904E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>336.84895819011598</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E35" s="4">
-        <v>0.87795098706538399</v>
+        <v>-1.3780300609600999</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -14190,16 +14206,16 @@
         <v>168</v>
       </c>
       <c r="B36" s="4">
-        <v>-2.5614572756231802E-2</v>
+        <v>-9.1741621915880801E-3</v>
       </c>
       <c r="C36" s="4">
-        <v>6.1926403825099799E-2</v>
+        <v>2.7626594129766702E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E36" s="4">
-        <v>-0.41362926270635098</v>
+        <v>-0.33207720606078001</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -14210,16 +14226,16 @@
         <v>169</v>
       </c>
       <c r="B37" s="4">
-        <v>-0.101064810525964</v>
+        <v>-2.7046995860667999E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E37" s="4">
-        <v>-0.90952838571440298</v>
+        <v>-0.62451016899946898</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -14230,16 +14246,16 @@
         <v>170</v>
       </c>
       <c r="B38" s="4">
-        <v>0.101837400180251</v>
+        <v>-1.6152189016499102E-2</v>
       </c>
       <c r="C38" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D38" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E38" s="4">
-        <v>1.06750595226659</v>
+        <v>-0.43455370366610502</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -14250,16 +14266,16 @@
         <v>171</v>
       </c>
       <c r="B39" s="4">
-        <v>-0.18168166185176299</v>
+        <v>-3.1953831381660198E-2</v>
       </c>
       <c r="C39" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E39" s="4">
-        <v>-1.4596693787197099</v>
+        <v>-0.65867401576619</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -14270,19 +14286,19 @@
         <v>172</v>
       </c>
       <c r="B40" s="4">
-        <v>0.220314577661441</v>
+        <v>3.0123016304040899E-2</v>
       </c>
       <c r="C40" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E40" s="4">
-        <v>3.0729129426767101</v>
+        <v>1.0786144509959801</v>
       </c>
       <c r="F40" s="4">
-        <v>0.380586151865204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14290,16 +14306,16 @@
         <v>173</v>
       </c>
       <c r="B41" s="4">
-        <v>7.5056354368244399E-2</v>
+        <v>-2.46964353785603E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E41" s="4">
-        <v>0.69893870807894198</v>
+        <v>-0.59005173001029299</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -14310,16 +14326,16 @@
         <v>174</v>
       </c>
       <c r="B42" s="4">
-        <v>0.20016972422326201</v>
+        <v>-0.12932820223821201</v>
       </c>
       <c r="C42" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>336.84895819011598</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E42" s="4">
-        <v>1.3980132290865599</v>
+        <v>-2.3174497138968801</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -14330,16 +14346,16 @@
         <v>175</v>
       </c>
       <c r="B43" s="4">
-        <v>0.111611316147138</v>
+        <v>-2.0022046022501499E-2</v>
       </c>
       <c r="C43" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E43" s="4">
-        <v>1.00444120633548</v>
+        <v>-0.46230536691178098</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -14350,16 +14366,16 @@
         <v>176</v>
       </c>
       <c r="B44" s="4">
-        <v>1.3024476417793701E-2</v>
+        <v>-4.9382408150757798E-2</v>
       </c>
       <c r="C44" s="4">
-        <v>4.4409725714972502E-2</v>
+        <v>1.9812057409420099E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E44" s="4">
-        <v>0.29327982121273499</v>
+        <v>-2.4925431584545001</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -14370,19 +14386,19 @@
         <v>177</v>
       </c>
       <c r="B45" s="4">
-        <v>0.25843799072714002</v>
+        <v>-1.34139827613311E-2</v>
       </c>
       <c r="C45" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D45" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290311801</v>
       </c>
       <c r="E45" s="4">
-        <v>3.6046522886251302</v>
+        <v>-0.48031430537193198</v>
       </c>
       <c r="F45" s="4">
-        <v>6.4399475441035206E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -14390,16 +14406,16 @@
         <v>178</v>
       </c>
       <c r="B46" s="4">
-        <v>-5.7424580078720901E-2</v>
+        <v>-8.7756117147323506E-3</v>
       </c>
       <c r="C46" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D46" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E46" s="4">
-        <v>-0.53474835208860305</v>
+        <v>-0.209668512674167</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -14410,16 +14426,16 @@
         <v>179</v>
       </c>
       <c r="B47" s="4">
-        <v>0.30587045419464698</v>
+        <v>-8.0461127466692095E-2</v>
       </c>
       <c r="C47" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D47" s="4">
-        <v>336.84895819006698</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E47" s="4">
-        <v>2.1362418468133999</v>
+        <v>-1.44179392893789</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -14430,16 +14446,16 @@
         <v>180</v>
       </c>
       <c r="B48" s="4">
-        <v>0.126333282876683</v>
+        <v>-2.4876237213697999E-2</v>
       </c>
       <c r="C48" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D48" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E48" s="4">
-        <v>1.13693090838291</v>
+        <v>-0.57438775035970702</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -14450,16 +14466,16 @@
         <v>181</v>
       </c>
       <c r="B49" s="4">
-        <v>-2.9129460536031299E-2</v>
+        <v>-3.8242911502858398E-2</v>
       </c>
       <c r="C49" s="4">
-        <v>4.4409725714972398E-2</v>
+        <v>1.9812057409420099E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E49" s="4">
-        <v>-0.65592525211680097</v>
+        <v>-1.93028471059624</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -14470,19 +14486,19 @@
         <v>182</v>
       </c>
       <c r="B50" s="4">
-        <v>0.27176937703353099</v>
+        <v>4.6330638548024203E-2</v>
       </c>
       <c r="C50" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>336.84895819069902</v>
+        <v>382.55822290311801</v>
       </c>
       <c r="E50" s="4">
-        <v>3.7905963598689398</v>
+        <v>1.6589605688015701</v>
       </c>
       <c r="F50" s="4">
-        <v>3.2579741419924597E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -14490,16 +14506,16 @@
         <v>183</v>
       </c>
       <c r="B51" s="4">
-        <v>-0.18760892855940101</v>
+        <v>2.4189433744932501E-2</v>
       </c>
       <c r="C51" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D51" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E51" s="4">
-        <v>-1.7470491773160299</v>
+        <v>0.57793835468083898</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -14510,16 +14526,16 @@
         <v>184</v>
       </c>
       <c r="B52" s="4">
-        <v>0.26773380297633198</v>
+        <v>-8.4783956691399501E-2</v>
       </c>
       <c r="C52" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509398E-2</v>
       </c>
       <c r="D52" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902365</v>
       </c>
       <c r="E52" s="4">
-        <v>1.86989016389458</v>
+        <v>-1.5192552960384</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -14530,16 +14546,16 @@
         <v>185</v>
       </c>
       <c r="B53" s="4">
-        <v>0.104806534061104</v>
+        <v>-9.9550937175096697E-3</v>
       </c>
       <c r="C53" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E53" s="4">
-        <v>0.943201864633467</v>
+        <v>-0.22986128633118999</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -14550,16 +14566,16 @@
         <v>186</v>
       </c>
       <c r="B54" s="4">
-        <v>2.93562962913715E-2</v>
+        <v>-2.7827927386589599E-2</v>
       </c>
       <c r="C54" s="4">
-        <v>4.4409725714972398E-2</v>
+        <v>1.9812057409420099E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E54" s="4">
-        <v>0.66103304667504903</v>
+        <v>-1.4045955355125399</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -14570,19 +14586,19 @@
         <v>187</v>
       </c>
       <c r="B55" s="4">
-        <v>0.23225850699758699</v>
+        <v>-1.6933120542420702E-2</v>
       </c>
       <c r="C55" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E55" s="4">
-        <v>3.2395049831719098</v>
+        <v>-0.60632402589317902</v>
       </c>
       <c r="F55" s="4">
-        <v>0.22515805548585799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -14590,16 +14606,16 @@
         <v>188</v>
       </c>
       <c r="B56" s="4">
-        <v>-5.1260555034427099E-2</v>
+        <v>-3.2734762907581802E-2</v>
       </c>
       <c r="C56" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E56" s="4">
-        <v>-0.47734780636148899</v>
+        <v>-0.78210491469807497</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -14610,16 +14626,16 @@
         <v>189</v>
       </c>
       <c r="B57" s="4">
-        <v>-0.14525822329319699</v>
+        <v>-5.4819451682601099E-2</v>
       </c>
       <c r="C57" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E57" s="4">
-        <v>-1.5958295475603199</v>
+        <v>-1.5457661418872599</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -14630,19 +14646,19 @@
         <v>190</v>
       </c>
       <c r="B58" s="4">
-        <v>-2.0144853438179001E-2</v>
+        <v>-0.159451218542253</v>
       </c>
       <c r="C58" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902333</v>
       </c>
       <c r="E58" s="4">
-        <v>-0.15336040381618599</v>
+        <v>-3.11499650895641</v>
       </c>
       <c r="F58" s="4">
-        <v>1</v>
+        <v>0.36397983908373699</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14650,16 +14666,16 @@
         <v>191</v>
       </c>
       <c r="B59" s="4">
-        <v>-0.108703261514304</v>
+        <v>-5.0145062326542401E-2</v>
       </c>
       <c r="C59" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E59" s="4">
-        <v>-1.13947703389835</v>
+        <v>-1.3490878872398</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -14670,19 +14686,19 @@
         <v>192</v>
       </c>
       <c r="B60" s="4">
-        <v>-0.207290101243648</v>
+        <v>-7.9505424454798704E-2</v>
       </c>
       <c r="C60" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E60" s="4">
-        <v>-2.8912496020995402</v>
+        <v>-2.8468496940663801</v>
       </c>
       <c r="F60" s="4">
-        <v>0.65789416461893402</v>
+        <v>0.84692021807296403</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14690,19 +14706,19 @@
         <v>193</v>
       </c>
       <c r="B61" s="4">
-        <v>3.8123413065699101E-2</v>
+        <v>-4.3536999065371999E-2</v>
       </c>
       <c r="C61" s="4">
-        <v>2.1103100342896901E-2</v>
+        <v>9.3842874194306394E-3</v>
       </c>
       <c r="D61" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E61" s="4">
-        <v>1.8065313838367401</v>
+        <v>-4.6393505568922002</v>
       </c>
       <c r="F61" s="4">
-        <v>1</v>
+        <v>7.8033741503436005E-4</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14710,19 +14726,19 @@
         <v>194</v>
       </c>
       <c r="B62" s="4">
-        <v>-0.277739157740162</v>
+        <v>-3.8898628018773203E-2</v>
       </c>
       <c r="C62" s="4">
-        <v>9.1023645673978706E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E62" s="4">
-        <v>-3.0512858025369201</v>
+        <v>-1.09684026949818</v>
       </c>
       <c r="F62" s="4">
-        <v>0.40337352720109398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14730,16 +14746,16 @@
         <v>195</v>
       </c>
       <c r="B63" s="4">
-        <v>8.5555876533205302E-2</v>
+        <v>-0.110584143770733</v>
       </c>
       <c r="C63" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>336.84895818993601</v>
+        <v>382.55822290237501</v>
       </c>
       <c r="E63" s="4">
-        <v>0.65132684207635805</v>
+        <v>-2.1603423601337099</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -14750,16 +14766,16 @@
         <v>196</v>
       </c>
       <c r="B64" s="4">
-        <v>-9.3981294784757904E-2</v>
+        <v>-5.4999253517738898E-2</v>
       </c>
       <c r="C64" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D64" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E64" s="4">
-        <v>-0.98515468194273603</v>
+        <v>-1.47968360762687</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -14770,19 +14786,19 @@
         <v>197</v>
       </c>
       <c r="B65" s="4">
-        <v>-0.24944403819747299</v>
+        <v>-6.8365927806899304E-2</v>
       </c>
       <c r="C65" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D65" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E65" s="4">
-        <v>-3.4792060588404299</v>
+        <v>-2.4479778832233898</v>
       </c>
       <c r="F65" s="4">
-        <v>0.10070705809505701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14790,16 +14806,16 @@
         <v>198</v>
       </c>
       <c r="B66" s="4">
-        <v>5.1454799372089702E-2</v>
+        <v>1.6207622243983401E-2</v>
       </c>
       <c r="C66" s="4">
-        <v>2.1103100342896901E-2</v>
+        <v>9.3842874194306394E-3</v>
       </c>
       <c r="D66" s="4">
-        <v>696.00000000002001</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E66" s="4">
-        <v>2.4382578169092999</v>
+        <v>1.7271020717486401</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -14810,19 +14826,19 @@
         <v>199</v>
       </c>
       <c r="B67" s="4">
-        <v>-0.407923506220842</v>
+        <v>-5.9335825591083496E-3</v>
       </c>
       <c r="C67" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D67" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E67" s="4">
-        <v>-4.4815114050903899</v>
+        <v>-0.16731161546574699</v>
       </c>
       <c r="F67" s="4">
-        <v>1.89164126846204E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14830,16 +14846,16 @@
         <v>200</v>
       </c>
       <c r="B68" s="4">
-        <v>4.7419225314890803E-2</v>
+        <v>-0.11490697299544</v>
       </c>
       <c r="C68" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.11882495161037E-2</v>
       </c>
       <c r="D68" s="4">
-        <v>336.84895818985399</v>
+        <v>382.55822290221602</v>
       </c>
       <c r="E68" s="4">
-        <v>0.36099699435687699</v>
+        <v>-2.2447919997594501</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -14850,16 +14866,16 @@
         <v>201</v>
       </c>
       <c r="B69" s="4">
-        <v>-0.11550804360033699</v>
+        <v>-4.0078110021550498E-2</v>
       </c>
       <c r="C69" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849262899E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E69" s="4">
-        <v>-1.21080785506877</v>
+        <v>-1.0782495875953599</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -14870,16 +14886,16 @@
         <v>202</v>
       </c>
       <c r="B70" s="4">
-        <v>-0.19095828137007001</v>
+        <v>-5.7950943690630502E-2</v>
       </c>
       <c r="C70" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E70" s="4">
-        <v>-2.66345595721371</v>
+        <v>-2.0750486831288399</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -14890,19 +14906,19 @@
         <v>203</v>
       </c>
       <c r="B71" s="4">
-        <v>1.1943929336145499E-2</v>
+        <v>-4.7056136846461601E-2</v>
       </c>
       <c r="C71" s="4">
-        <v>2.1103100342896901E-2</v>
+        <v>9.3842874194306307E-3</v>
       </c>
       <c r="D71" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E71" s="4">
-        <v>0.565979839079227</v>
+        <v>-5.0143537535976899</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
+        <v>1.2694912934768101E-4</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -14910,19 +14926,19 @@
         <v>204</v>
       </c>
       <c r="B72" s="4">
-        <v>-0.27157513269586803</v>
+        <v>-6.2857779211622694E-2</v>
       </c>
       <c r="C72" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D72" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E72" s="4">
-        <v>-2.9835668598528202</v>
+        <v>-1.77242609835132</v>
       </c>
       <c r="F72" s="4">
-        <v>0.498305184845871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -14930,16 +14946,16 @@
         <v>205</v>
       </c>
       <c r="B73" s="4">
-        <v>0.125113369855018</v>
+        <v>-0.104631766859652</v>
       </c>
       <c r="C73" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>336.84895819018999</v>
+        <v>382.55822290254503</v>
       </c>
       <c r="E73" s="4">
-        <v>0.81362620338100899</v>
+        <v>-1.7457777441837099</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -14950,16 +14966,16 @@
         <v>206</v>
       </c>
       <c r="B74" s="4">
-        <v>3.65549617788931E-2</v>
+        <v>4.6743893560587902E-3</v>
       </c>
       <c r="C74" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E74" s="4">
-        <v>0.29369039123197499</v>
+        <v>9.6354605231380799E-2</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -14970,16 +14986,16 @@
         <v>207</v>
       </c>
       <c r="B75" s="4">
-        <v>-6.2031877950450703E-2</v>
+        <v>-2.4685972772197501E-2</v>
       </c>
       <c r="C75" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D75" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E75" s="4">
-        <v>-0.57765236533713504</v>
+        <v>-0.58980175551437297</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -14990,16 +15006,16 @@
         <v>208</v>
       </c>
       <c r="B76" s="4">
-        <v>0.18338163635889601</v>
+        <v>1.12824526172291E-2</v>
       </c>
       <c r="C76" s="4">
-        <v>9.1023645673978706E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D76" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E76" s="4">
-        <v>2.0146593228721899</v>
+        <v>0.318135857216086</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -15010,16 +15026,16 @@
         <v>209</v>
       </c>
       <c r="B77" s="4">
-        <v>-0.13248093444696499</v>
+        <v>1.59208236638279E-2</v>
       </c>
       <c r="C77" s="4">
-        <v>5.8748545017203599E-2</v>
+        <v>2.6208888432930101E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E77" s="4">
-        <v>-2.2550504767083202</v>
+        <v>0.60745894296777103</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -15030,16 +15046,16 @@
         <v>210</v>
       </c>
       <c r="B78" s="4">
-        <v>0.230814099826402</v>
+        <v>-5.5764692088131798E-2</v>
       </c>
       <c r="C78" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D78" s="4">
-        <v>336.84895819014901</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E78" s="4">
-        <v>1.5010098436816199</v>
+        <v>-0.93043213624885202</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -15050,16 +15066,16 @@
         <v>211</v>
       </c>
       <c r="B79" s="4">
-        <v>5.1276928508438901E-2</v>
+        <v>-1.79801835137704E-4</v>
       </c>
       <c r="C79" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E79" s="4">
-        <v>0.41196982466858501</v>
+        <v>-3.7063097497677501E-3</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -15070,16 +15086,16 @@
         <v>212</v>
       </c>
       <c r="B80" s="4">
-        <v>-0.104185814904276</v>
+        <v>-1.35464761242982E-2</v>
       </c>
       <c r="C80" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E80" s="4">
-        <v>-0.97019765324700402</v>
+        <v>-0.32365487367558798</v>
       </c>
       <c r="F80" s="4">
         <v>1</v>
@@ -15090,16 +15106,16 @@
         <v>213</v>
       </c>
       <c r="B81" s="4">
-        <v>0.19671302266528701</v>
+        <v>7.10270739265845E-2</v>
       </c>
       <c r="C81" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E81" s="4">
-        <v>2.1611200167685798</v>
+        <v>2.0027789892667598</v>
       </c>
       <c r="F81" s="4">
         <v>1</v>
@@ -15110,19 +15126,19 @@
         <v>214</v>
       </c>
       <c r="B82" s="4">
-        <v>-0.26266528292764502</v>
+        <v>4.8885869123492798E-2</v>
       </c>
       <c r="C82" s="4">
-        <v>5.8748545017203703E-2</v>
+        <v>2.6208888432930001E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E82" s="4">
-        <v>-4.4710091603243596</v>
+        <v>1.8652400787082</v>
       </c>
       <c r="F82" s="4">
-        <v>1.69946915189379E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -15130,16 +15146,16 @@
         <v>215</v>
       </c>
       <c r="B83" s="4">
-        <v>0.192677448608088</v>
+        <v>-6.0087521312839197E-2</v>
       </c>
       <c r="C83" s="4">
-        <v>0.15377254239737001</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>336.84895819009199</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E83" s="4">
-        <v>1.25300294580668</v>
+        <v>-1.0025584061084101</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -15150,16 +15166,16 @@
         <v>216</v>
       </c>
       <c r="B84" s="4">
-        <v>2.97501796928594E-2</v>
+        <v>1.4741341661050599E-2</v>
       </c>
       <c r="C84" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D84" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E84" s="4">
-        <v>0.23901931469840501</v>
+        <v>0.30386774573888897</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -15170,16 +15186,16 @@
         <v>217</v>
       </c>
       <c r="B85" s="4">
-        <v>-4.5700058076872899E-2</v>
+        <v>-3.1314920080293099E-3</v>
       </c>
       <c r="C85" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E85" s="4">
-        <v>-0.425567426239081</v>
+        <v>-7.4818177138842507E-2</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -15190,16 +15206,16 @@
         <v>218</v>
       </c>
       <c r="B86" s="4">
-        <v>0.15720215262934201</v>
+        <v>7.7633148361395702E-3</v>
       </c>
       <c r="C86" s="4">
-        <v>9.1023645673978706E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E86" s="4">
-        <v>1.7270474222972401</v>
+        <v>0.21890531288046999</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -15210,16 +15226,16 @@
         <v>219</v>
       </c>
       <c r="B87" s="4">
-        <v>-0.12631690940267201</v>
+        <v>-8.0383275290215397E-3</v>
       </c>
       <c r="C87" s="4">
-        <v>5.8748545017203599E-2</v>
+        <v>2.6208888432930001E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E87" s="4">
-        <v>-2.15012830301893</v>
+        <v>-0.30670234449629802</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
@@ -15230,16 +15246,16 @@
         <v>220</v>
       </c>
       <c r="B88" s="4">
-        <v>-8.8558408076124806E-2</v>
+        <v>0.10930615621571101</v>
       </c>
       <c r="C88" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D88" s="4">
-        <v>336.848958190215</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E88" s="4">
-        <v>-0.56622543987735097</v>
+        <v>1.79311600762626</v>
       </c>
       <c r="F88" s="4">
         <v>1</v>
@@ -15250,16 +15266,16 @@
         <v>221</v>
       </c>
       <c r="B89" s="4">
-        <v>-0.18714524780546901</v>
+        <v>7.9945794087454503E-2</v>
       </c>
       <c r="C89" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>336.84895819012502</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E89" s="4">
-        <v>-1.30704847203023</v>
+        <v>1.43255959975364</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -15270,16 +15286,16 @@
         <v>222</v>
       </c>
       <c r="B90" s="4">
-        <v>5.8268266503878001E-2</v>
+        <v>0.11591421947688101</v>
       </c>
       <c r="C90" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902333</v>
       </c>
       <c r="E90" s="4">
-        <v>0.44358947103423002</v>
+        <v>2.26446929857241</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -15290,16 +15306,16 @@
         <v>223</v>
       </c>
       <c r="B91" s="4">
-        <v>-0.25759430430198299</v>
+        <v>0.12055259052348</v>
       </c>
       <c r="C91" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D91" s="4">
-        <v>336.84895819018999</v>
+        <v>382.55822290254503</v>
       </c>
       <c r="E91" s="4">
-        <v>-1.67516450132119</v>
+        <v>2.0114161870350702</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -15310,16 +15326,16 @@
         <v>224</v>
       </c>
       <c r="B92" s="4">
-        <v>0.10570072997138399</v>
+        <v>4.8867074771520198E-2</v>
       </c>
       <c r="C92" s="4">
-        <v>8.7577160158449505E-2</v>
+        <v>3.9069904100492998E-2</v>
       </c>
       <c r="D92" s="4">
-        <v>696.00000000072896</v>
+        <v>699.00000000004695</v>
       </c>
       <c r="E92" s="4">
-        <v>1.20694402262125</v>
+        <v>1.25076003887359</v>
       </c>
       <c r="F92" s="4">
         <v>1</v>
@@ -15330,16 +15346,16 @@
         <v>225</v>
       </c>
       <c r="B93" s="4">
-        <v>-7.3836441346578893E-2</v>
+        <v>0.104451965024514</v>
       </c>
       <c r="C93" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D93" s="4">
-        <v>336.848958190215</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E93" s="4">
-        <v>-0.47209601424301401</v>
+        <v>1.7134852875427999</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -15350,16 +15366,16 @@
         <v>226</v>
       </c>
       <c r="B94" s="4">
-        <v>-0.22929918475929401</v>
+        <v>9.1085290735353902E-2</v>
       </c>
       <c r="C94" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D94" s="4">
-        <v>336.84895819011598</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E94" s="4">
-        <v>-1.6014574379625499</v>
+        <v>1.63216976113267</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -15370,19 +15386,19 @@
         <v>227</v>
       </c>
       <c r="B95" s="4">
-        <v>7.1599652810268699E-2</v>
+        <v>0.175658840786237</v>
       </c>
       <c r="C95" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D95" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902333</v>
       </c>
       <c r="E95" s="4">
-        <v>0.54507974961341599</v>
+        <v>3.4316242975055098</v>
       </c>
       <c r="F95" s="4">
-        <v>1</v>
+        <v>0.123775414535832</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -15390,16 +15406,16 @@
         <v>228</v>
       </c>
       <c r="B96" s="4">
-        <v>-0.38777865278266299</v>
+        <v>0.153517635983145</v>
       </c>
       <c r="C96" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D96" s="4">
-        <v>336.84895819018999</v>
+        <v>382.55822290254503</v>
       </c>
       <c r="E96" s="4">
-        <v>-2.5217678444867402</v>
+        <v>2.56143693529101</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -15410,16 +15426,16 @@
         <v>229</v>
       </c>
       <c r="B97" s="4">
-        <v>6.7564078753069801E-2</v>
+        <v>4.45442455468128E-2</v>
       </c>
       <c r="C97" s="4">
-        <v>8.7577160158449394E-2</v>
+        <v>3.9069904100492998E-2</v>
       </c>
       <c r="D97" s="4">
-        <v>696.00000000048101</v>
+        <v>699.00000000011903</v>
       </c>
       <c r="E97" s="4">
-        <v>0.77148058501587802</v>
+        <v>1.1401165826319699</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -15430,16 +15446,16 @@
         <v>230</v>
       </c>
       <c r="B98" s="4">
-        <v>-9.5363190162158398E-2</v>
+        <v>0.119373108520703</v>
       </c>
       <c r="C98" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D98" s="4">
-        <v>336.84895819020699</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E98" s="4">
-        <v>-0.60973390862288002</v>
+        <v>1.9582596184807901</v>
       </c>
       <c r="F98" s="4">
         <v>1</v>
@@ -15450,16 +15466,16 @@
         <v>231</v>
       </c>
       <c r="B99" s="4">
-        <v>-0.170813427931891</v>
+        <v>0.101500274851623</v>
       </c>
       <c r="C99" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D99" s="4">
-        <v>336.84895819012502</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E99" s="4">
-        <v>-1.19298476770672</v>
+        <v>1.81879728353517</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -15470,16 +15486,16 @@
         <v>232</v>
       </c>
       <c r="B100" s="4">
-        <v>3.2088782774324497E-2</v>
+        <v>0.112395081695792</v>
       </c>
       <c r="C100" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D100" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902333</v>
       </c>
       <c r="E100" s="4">
-        <v>0.24428813539609201</v>
+        <v>2.19572036079163</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -15490,16 +15506,16 @@
         <v>233</v>
       </c>
       <c r="B101" s="4">
-        <v>-0.25143027925768902</v>
+        <v>9.6593439330630498E-2</v>
       </c>
       <c r="C101" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D101" s="4">
-        <v>336.84895819018999</v>
+        <v>382.55822290254503</v>
       </c>
       <c r="E101" s="4">
-        <v>-1.6350791587223501</v>
+        <v>1.61165850179867</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -15510,16 +15526,16 @@
         <v>234</v>
       </c>
       <c r="B102" s="4">
-        <v>-9.8586839729343803E-2</v>
+        <v>-2.9360362128256299E-2</v>
       </c>
       <c r="C102" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D102" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E102" s="4">
-        <v>-0.88722799483880199</v>
+        <v>-0.67792537141868403</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -15530,16 +15546,16 @@
         <v>235</v>
       </c>
       <c r="B103" s="4">
-        <v>0.14682667458000301</v>
+        <v>6.6080632611703501E-3</v>
       </c>
       <c r="C103" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D103" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E103" s="4">
-        <v>1.5391039911490101</v>
+        <v>0.17778137447922701</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -15550,16 +15566,16 @@
         <v>236</v>
       </c>
       <c r="B104" s="4">
-        <v>-0.16903589622585799</v>
+        <v>1.12464343077691E-2</v>
       </c>
       <c r="C104" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D104" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E104" s="4">
-        <v>-1.3580705895713601</v>
+        <v>0.23182616069009501</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
@@ -15570,16 +15586,16 @@
         <v>237</v>
       </c>
       <c r="B105" s="4">
-        <v>0.19425913804750899</v>
+        <v>-6.04390814441906E-2</v>
       </c>
       <c r="C105" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222701E-2</v>
       </c>
       <c r="D105" s="4">
-        <v>336.848958190166</v>
+        <v>382.558222902588</v>
       </c>
       <c r="E105" s="4">
-        <v>1.24205559111445</v>
+        <v>-0.99147466323793998</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -15590,16 +15606,16 @@
         <v>238</v>
       </c>
       <c r="B106" s="4">
-        <v>1.4721966729545901E-2</v>
+        <v>-4.8541911911965004E-3</v>
       </c>
       <c r="C106" s="4">
-        <v>6.1926403825099799E-2</v>
+        <v>2.7626594129766702E-2</v>
       </c>
       <c r="D106" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E106" s="4">
-        <v>0.237733274018712</v>
+        <v>-0.17570718881942299</v>
       </c>
       <c r="F106" s="4">
         <v>1</v>
@@ -15610,16 +15626,16 @@
         <v>239</v>
       </c>
       <c r="B107" s="4">
-        <v>-0.14074077668316901</v>
+        <v>-1.8220865480356899E-2</v>
       </c>
       <c r="C107" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D107" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E107" s="4">
-        <v>-1.26659052497751</v>
+        <v>-0.42071643886343502</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -15630,16 +15646,16 @@
         <v>240</v>
       </c>
       <c r="B108" s="4">
-        <v>0.16015806088639301</v>
+        <v>6.6352684570525705E-2</v>
       </c>
       <c r="C108" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849262899E-2</v>
       </c>
       <c r="D108" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E108" s="4">
-        <v>1.6788496465648799</v>
+        <v>1.78513295002044</v>
       </c>
       <c r="F108" s="4">
         <v>1</v>
@@ -15650,16 +15666,16 @@
         <v>241</v>
       </c>
       <c r="B109" s="4">
-        <v>-0.29922024470653802</v>
+        <v>4.4211479767434003E-2</v>
       </c>
       <c r="C109" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D109" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E109" s="4">
-        <v>-2.4039995244402501</v>
+        <v>0.91134463888093498</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -15670,16 +15686,16 @@
         <v>242</v>
       </c>
       <c r="B110" s="4">
-        <v>0.156122486829195</v>
+        <v>-6.4761910668897998E-2</v>
       </c>
       <c r="C110" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D110" s="4">
-        <v>336.84895819011598</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E110" s="4">
-        <v>0.99821717327639503</v>
+        <v>-1.0623886405418399</v>
       </c>
       <c r="F110" s="4">
         <v>1</v>
@@ -15690,16 +15706,16 @@
         <v>243</v>
       </c>
       <c r="B111" s="4">
-        <v>-6.8047820860336703E-3</v>
+        <v>1.00669523049918E-2</v>
       </c>
       <c r="C111" s="4">
-        <v>6.1926403825099799E-2</v>
+        <v>2.7626594129766702E-2</v>
       </c>
       <c r="D111" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E111" s="4">
-        <v>-0.109884987109094</v>
+        <v>0.36439353536326902</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -15710,16 +15726,16 @@
         <v>244</v>
       </c>
       <c r="B112" s="4">
-        <v>-8.2255019855765998E-2</v>
+        <v>-7.8058813640880997E-3</v>
       </c>
       <c r="C112" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D112" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E112" s="4">
-        <v>-0.74025048913638503</v>
+        <v>-0.18023636765388501</v>
       </c>
       <c r="F112" s="4">
         <v>1</v>
@@ -15730,16 +15746,16 @@
         <v>245</v>
       </c>
       <c r="B113" s="4">
-        <v>0.120647190850449</v>
+        <v>3.08892548008078E-3</v>
       </c>
       <c r="C113" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D113" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E113" s="4">
-        <v>1.2646787342286701</v>
+        <v>8.3103535152205601E-2</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -15750,16 +15766,16 @@
         <v>246</v>
       </c>
       <c r="B114" s="4">
-        <v>-0.16287187118156499</v>
+        <v>-1.27127168850803E-2</v>
       </c>
       <c r="C114" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D114" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E114" s="4">
-        <v>-1.3085474923302201</v>
+        <v>-0.26205108808330502</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -15770,19 +15786,19 @@
         <v>247</v>
       </c>
       <c r="B115" s="4">
-        <v>0.24541351430934699</v>
+        <v>3.5968425389426698E-2</v>
       </c>
       <c r="C115" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D115" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E115" s="4">
-        <v>3.4229889480479501</v>
+        <v>1.2879209376984599</v>
       </c>
       <c r="F115" s="4">
-        <v>0.12105527273130499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -15790,16 +15806,16 @@
         <v>248</v>
       </c>
       <c r="B116" s="4">
-        <v>-7.0449056496514603E-2</v>
+        <v>4.0606796436025501E-2</v>
       </c>
       <c r="C116" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D116" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E116" s="4">
-        <v>-0.65603469483040999</v>
+        <v>0.97018497285049898</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -15810,16 +15826,16 @@
         <v>249</v>
       </c>
       <c r="B117" s="4">
-        <v>0.29284597777685301</v>
+        <v>-3.1078719315934301E-2</v>
       </c>
       <c r="C117" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D117" s="4">
-        <v>336.84895819005902</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E117" s="4">
-        <v>2.0452770897570698</v>
+        <v>-0.55690381479464102</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -15830,16 +15846,16 @@
         <v>250</v>
       </c>
       <c r="B118" s="4">
-        <v>0.11330880645888999</v>
+        <v>2.4506170937059799E-2</v>
       </c>
       <c r="C118" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D118" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E118" s="4">
-        <v>1.01971769688623</v>
+        <v>0.56584298797075805</v>
       </c>
       <c r="F118" s="4">
         <v>1</v>
@@ -15850,16 +15866,16 @@
         <v>251</v>
       </c>
       <c r="B119" s="4">
-        <v>-4.2153936953825001E-2</v>
+        <v>1.11394966478994E-2</v>
       </c>
       <c r="C119" s="4">
-        <v>4.4409725714972502E-2</v>
+        <v>1.9812057409420099E-2</v>
       </c>
       <c r="D119" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E119" s="4">
-        <v>-0.94920507332953497</v>
+        <v>0.56225844785826495</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -15870,19 +15886,19 @@
         <v>252</v>
       </c>
       <c r="B120" s="4">
-        <v>0.25874490061573702</v>
+        <v>9.5713046698782098E-2</v>
       </c>
       <c r="C120" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D120" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E120" s="4">
-        <v>3.6089330192917699</v>
+        <v>3.4271958118719601</v>
       </c>
       <c r="F120" s="4">
-        <v>6.3739466067931502E-2</v>
+        <v>0.12507396796598599</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -15890,16 +15906,16 @@
         <v>253</v>
       </c>
       <c r="B121" s="4">
-        <v>-0.20063340497719501</v>
+        <v>7.3571841895690299E-2</v>
       </c>
       <c r="C121" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D121" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E121" s="4">
-        <v>-1.86833552005784</v>
+        <v>1.7577918402054999</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -15910,16 +15926,16 @@
         <v>254</v>
       </c>
       <c r="B122" s="4">
-        <v>0.25470932655853801</v>
+        <v>-3.5401548540641703E-2</v>
       </c>
       <c r="C122" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509398E-2</v>
       </c>
       <c r="D122" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902365</v>
       </c>
       <c r="E122" s="4">
-        <v>1.7789254068382501</v>
+        <v>-0.63436518189515401</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -15930,16 +15946,16 @@
         <v>255</v>
       </c>
       <c r="B123" s="4">
-        <v>9.17820576433101E-2</v>
+        <v>3.9427314433248102E-2</v>
       </c>
       <c r="C123" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D123" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E123" s="4">
-        <v>0.82598865313679104</v>
+        <v>0.91036945199927499</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -15950,16 +15966,16 @@
         <v>256</v>
       </c>
       <c r="B124" s="4">
-        <v>1.6331819873577801E-2</v>
+        <v>2.1554480764168198E-2</v>
       </c>
       <c r="C124" s="4">
-        <v>4.4409725714972398E-2</v>
+        <v>1.9812057409420099E-2</v>
       </c>
       <c r="D124" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E124" s="4">
-        <v>0.36775322546231398</v>
+        <v>1.08794762294196</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -15970,19 +15986,19 @@
         <v>257</v>
       </c>
       <c r="B125" s="4">
-        <v>0.21923403057979299</v>
+        <v>3.2449287608337103E-2</v>
       </c>
       <c r="C125" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D125" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E125" s="4">
-        <v>3.0578416425947399</v>
+        <v>1.1619112171772199</v>
       </c>
       <c r="F125" s="4">
-        <v>0.39729634943111802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -15990,16 +16006,16 @@
         <v>258</v>
       </c>
       <c r="B126" s="4">
-        <v>-6.4285031452220795E-2</v>
+        <v>1.6647645243175999E-2</v>
       </c>
       <c r="C126" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D126" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E126" s="4">
-        <v>-0.59863414910329504</v>
+        <v>0.39774857082659099</v>
       </c>
       <c r="F126" s="4">
         <v>1</v>
@@ -16010,19 +16026,19 @@
         <v>259</v>
       </c>
       <c r="B127" s="4">
-        <v>-0.315862570805861</v>
+        <v>4.6383710465987896E-3</v>
       </c>
       <c r="C127" s="4">
-        <v>9.1023645673978706E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D127" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E127" s="4">
-        <v>-3.4701155778487802</v>
+        <v>0.13079001517299399</v>
       </c>
       <c r="F127" s="4">
-        <v>0.10346697701546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16030,16 +16046,16 @@
         <v>260</v>
       </c>
       <c r="B128" s="4">
-        <v>4.7432463467506202E-2</v>
+        <v>-6.7047144705360898E-2</v>
       </c>
       <c r="C128" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103901E-2</v>
       </c>
       <c r="D128" s="4">
-        <v>336.84895818993601</v>
+        <v>382.55822290237501</v>
       </c>
       <c r="E128" s="4">
-        <v>0.36109777485831401</v>
+        <v>-1.3098151497497099</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -16050,16 +16066,16 @@
         <v>261</v>
       </c>
       <c r="B129" s="4">
-        <v>-0.132104707850457</v>
+        <v>-1.14622544523668E-2</v>
       </c>
       <c r="C129" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D129" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E129" s="4">
-        <v>-1.3847816391934</v>
+        <v>-0.308377094866297</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -16070,19 +16086,19 @@
         <v>262</v>
       </c>
       <c r="B130" s="4">
-        <v>-0.28756745126317201</v>
+        <v>-2.4828928741527301E-2</v>
       </c>
       <c r="C130" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D130" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E130" s="4">
-        <v>-4.01094540478885</v>
+        <v>-0.88904912685547799</v>
       </c>
       <c r="F130" s="4">
-        <v>1.3714370823924101E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16090,19 +16106,19 @@
         <v>263</v>
       </c>
       <c r="B131" s="4">
-        <v>1.3331386306390599E-2</v>
+        <v>5.97446213093554E-2</v>
       </c>
       <c r="C131" s="4">
-        <v>2.1103100342896901E-2</v>
+        <v>9.3842874194306307E-3</v>
       </c>
       <c r="D131" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E131" s="4">
-        <v>0.63172643307256404</v>
-      </c>
-      <c r="F131" s="4">
-        <v>1</v>
+        <v>6.3664526286408503</v>
+      </c>
+      <c r="F131" s="5">
+        <v>6.6200452495323701E-8</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16110,19 +16126,19 @@
         <v>264</v>
       </c>
       <c r="B132" s="4">
-        <v>-0.446046919286541</v>
+        <v>3.7603416506263698E-2</v>
       </c>
       <c r="C132" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D132" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E132" s="4">
-        <v>-4.9003411804022496</v>
+        <v>1.0603186692054301</v>
       </c>
       <c r="F132" s="4">
-        <v>2.8146772703991301E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16130,16 +16146,16 @@
         <v>265</v>
       </c>
       <c r="B133" s="4">
-        <v>9.2958122491917199E-3</v>
+        <v>-7.1369973930068401E-2</v>
       </c>
       <c r="C133" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.11882495161037E-2</v>
       </c>
       <c r="D133" s="4">
-        <v>336.84895818985399</v>
+        <v>382.55822290221602</v>
       </c>
       <c r="E133" s="4">
-        <v>7.0767927138831996E-2</v>
+        <v>-1.3942647893754501</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
@@ -16150,16 +16166,16 @@
         <v>266</v>
       </c>
       <c r="B134" s="4">
-        <v>-0.153631456666037</v>
+        <v>3.45888904382147E-3</v>
       </c>
       <c r="C134" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D134" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E134" s="4">
-        <v>-1.6104348123194301</v>
+        <v>9.30569251652128E-2</v>
       </c>
       <c r="F134" s="4">
         <v>1</v>
@@ -16170,19 +16186,19 @@
         <v>267</v>
       </c>
       <c r="B135" s="4">
-        <v>-0.22908169443576901</v>
+        <v>-1.4413944625258499E-2</v>
       </c>
       <c r="C135" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D135" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E135" s="4">
-        <v>-3.1951953031621301</v>
+        <v>-0.516119926760923</v>
       </c>
       <c r="F135" s="4">
-        <v>0.25848515977256997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16190,16 +16206,16 @@
         <v>268</v>
       </c>
       <c r="B136" s="4">
-        <v>-2.6179483729553501E-2</v>
+        <v>-3.5191377810895701E-3</v>
       </c>
       <c r="C136" s="4">
-        <v>2.1103100342896801E-2</v>
+        <v>9.3842874194306498E-3</v>
       </c>
       <c r="D136" s="4">
-        <v>695.99999999998499</v>
+        <v>699.00000000001103</v>
       </c>
       <c r="E136" s="4">
-        <v>-1.2405515447575199</v>
+        <v>-0.37500319670548599</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -16210,19 +16226,19 @@
         <v>269</v>
       </c>
       <c r="B137" s="4">
-        <v>-0.30969854576156702</v>
+        <v>-1.9320780146250702E-2</v>
       </c>
       <c r="C137" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D137" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E137" s="4">
-        <v>-3.4023966351646799</v>
+        <v>-0.54479581368014196</v>
       </c>
       <c r="F137" s="4">
-        <v>0.12947553066332801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16230,16 +16246,16 @@
         <v>270</v>
       </c>
       <c r="B138" s="4">
-        <v>0.36329503427336801</v>
+        <v>-7.1685515751959694E-2</v>
       </c>
       <c r="C138" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D138" s="4">
-        <v>336.84895819014901</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E138" s="4">
-        <v>2.3625481416217999</v>
+        <v>-1.19607057910021</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -16250,16 +16266,16 @@
         <v>271</v>
       </c>
       <c r="B139" s="4">
-        <v>0.183757862955404</v>
+        <v>-1.6100625498965598E-2</v>
       </c>
       <c r="C139" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D139" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E139" s="4">
-        <v>1.47635002300797</v>
+        <v>-0.33188707567124298</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -16270,16 +16286,16 @@
         <v>272</v>
       </c>
       <c r="B140" s="4">
-        <v>2.8295119542689699E-2</v>
+        <v>-2.9467299788126101E-2</v>
       </c>
       <c r="C140" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D140" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E140" s="4">
-        <v>0.26348940692054201</v>
+        <v>-0.704038091011714</v>
       </c>
       <c r="F140" s="4">
         <v>1</v>
@@ -16290,19 +16306,19 @@
         <v>273</v>
       </c>
       <c r="B141" s="4">
-        <v>0.32919395711225202</v>
+        <v>5.5106250262756597E-2</v>
       </c>
       <c r="C141" s="4">
-        <v>9.1023645673978706E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D141" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E141" s="4">
-        <v>3.6165762717451799</v>
+        <v>1.5538531168776799</v>
       </c>
       <c r="F141" s="4">
-        <v>6.2300257235315598E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16310,16 +16326,16 @@
         <v>274</v>
       </c>
       <c r="B142" s="4">
-        <v>-0.13018434848068</v>
+        <v>3.2965045459664902E-2</v>
       </c>
       <c r="C142" s="4">
-        <v>5.8748545017203599E-2</v>
+        <v>2.6208888432930001E-2</v>
       </c>
       <c r="D142" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E142" s="4">
-        <v>-2.2159586836160399</v>
+        <v>1.25778113574043</v>
       </c>
       <c r="F142" s="4">
         <v>1</v>
@@ -16330,16 +16346,16 @@
         <v>275</v>
       </c>
       <c r="B143" s="4">
-        <v>0.32515838305505301</v>
+        <v>-7.6008344976667197E-2</v>
       </c>
       <c r="C143" s="4">
-        <v>0.15377254239737001</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D143" s="4">
-        <v>336.84895819009199</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E143" s="4">
-        <v>2.11454124374686</v>
+        <v>-1.2681968489597599</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -16350,16 +16366,16 @@
         <v>276</v>
       </c>
       <c r="B144" s="4">
-        <v>0.16223111413982499</v>
+        <v>-1.17948200277732E-3</v>
       </c>
       <c r="C144" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D144" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E144" s="4">
-        <v>1.30339951303779</v>
+        <v>-2.4313020182586999E-2</v>
       </c>
       <c r="F144" s="4">
         <v>1</v>
@@ -16370,16 +16386,16 @@
         <v>277</v>
       </c>
       <c r="B145" s="4">
-        <v>8.6780876370092394E-2</v>
+        <v>-1.9052315671857199E-2</v>
       </c>
       <c r="C145" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D145" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E145" s="4">
-        <v>0.80811963392846498</v>
+        <v>-0.45520139447496799</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -16390,19 +16406,19 @@
         <v>278</v>
       </c>
       <c r="B146" s="4">
-        <v>0.28968308707630802</v>
+        <v>-8.15750882768837E-3</v>
       </c>
       <c r="C146" s="4">
-        <v>9.1023645673978706E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D146" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E146" s="4">
-        <v>3.18250367727383</v>
+        <v>-0.23002055950861</v>
       </c>
       <c r="F146" s="4">
-        <v>0.268138868889851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16410,16 +16426,16 @@
         <v>279</v>
       </c>
       <c r="B147" s="4">
-        <v>6.1640250442937996E-3</v>
+        <v>-2.3959151192849502E-2</v>
       </c>
       <c r="C147" s="4">
-        <v>5.8748545017203599E-2</v>
+        <v>2.6208888432930101E-2</v>
       </c>
       <c r="D147" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E147" s="4">
-        <v>0.104922173689387</v>
+        <v>-0.91416128746406899</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -16430,16 +16446,16 @@
         <v>280</v>
       </c>
       <c r="B148" s="4">
-        <v>-0.17953717131796301</v>
+        <v>5.5584890252994103E-2</v>
       </c>
       <c r="C148" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222701E-2</v>
       </c>
       <c r="D148" s="4">
-        <v>336.848958190166</v>
+        <v>382.558222902588</v>
       </c>
       <c r="E148" s="4">
-        <v>-1.1479261654801101</v>
+        <v>0.91184394315447403</v>
       </c>
       <c r="F148" s="4">
         <v>1</v>
@@ -16450,16 +16466,16 @@
         <v>281</v>
       </c>
       <c r="B149" s="4">
-        <v>-0.33499991473067797</v>
+        <v>4.22182159638336E-2</v>
       </c>
       <c r="C149" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D149" s="4">
-        <v>336.84895819006698</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E149" s="4">
-        <v>-2.3396860556893899</v>
+        <v>0.756513976173674</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -16470,16 +16486,16 @@
         <v>282</v>
       </c>
       <c r="B150" s="4">
-        <v>-3.4101077161115601E-2</v>
+        <v>0.12679176601471601</v>
       </c>
       <c r="C150" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D150" s="4">
-        <v>336.84895818993601</v>
+        <v>382.55822290237501</v>
       </c>
       <c r="E150" s="4">
-        <v>-0.25960749627912799</v>
+        <v>2.4769701486828102</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
@@ -16490,19 +16506,19 @@
         <v>283</v>
       </c>
       <c r="B151" s="4">
-        <v>-0.49347938275404701</v>
+        <v>0.104650561211625</v>
       </c>
       <c r="C151" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D151" s="4">
-        <v>336.84895819014901</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E151" s="4">
-        <v>-3.2091514847873501</v>
+        <v>1.74609132735615</v>
       </c>
       <c r="F151" s="4">
-        <v>0.24807585185461001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16510,16 +16526,16 @@
         <v>284</v>
       </c>
       <c r="B152" s="4">
-        <v>-3.8136651218314499E-2</v>
+        <v>-4.32282922470745E-3</v>
       </c>
       <c r="C152" s="4">
-        <v>8.7577160158449296E-2</v>
+        <v>3.9069904100493102E-2</v>
       </c>
       <c r="D152" s="4">
-        <v>696.00000000026796</v>
+        <v>699.00000000011903</v>
       </c>
       <c r="E152" s="4">
-        <v>-0.43546343760537098</v>
+        <v>-0.110643456241627</v>
       </c>
       <c r="F152" s="4">
         <v>1</v>
@@ -16530,16 +16546,16 @@
         <v>285</v>
       </c>
       <c r="B153" s="4">
-        <v>-0.20106392013354299</v>
+        <v>7.0506033749182406E-2</v>
       </c>
       <c r="C153" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222701E-2</v>
       </c>
       <c r="D153" s="4">
-        <v>336.848958190166</v>
+        <v>382.558222902588</v>
       </c>
       <c r="E153" s="4">
-        <v>-1.28556405985998</v>
+        <v>1.15661827409246</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -16550,16 +16566,16 @@
         <v>286</v>
       </c>
       <c r="B154" s="4">
-        <v>-0.27651415790327499</v>
+        <v>5.2633200080102499E-2</v>
       </c>
       <c r="C154" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509503E-2</v>
       </c>
       <c r="D154" s="4">
-        <v>336.84895819006698</v>
+        <v>382.55822290249199</v>
       </c>
       <c r="E154" s="4">
-        <v>-1.93121338543356</v>
+        <v>0.94314149857618002</v>
       </c>
       <c r="F154" s="4">
         <v>1</v>
@@ -16570,16 +16586,16 @@
         <v>287</v>
       </c>
       <c r="B155" s="4">
-        <v>-7.3611947197059796E-2</v>
+        <v>6.3528006924271394E-2</v>
       </c>
       <c r="C155" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D155" s="4">
-        <v>336.84895818993601</v>
+        <v>382.55822290237501</v>
       </c>
       <c r="E155" s="4">
-        <v>-0.56039911049645197</v>
+        <v>1.24106621196893</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -16590,16 +16606,16 @@
         <v>288</v>
       </c>
       <c r="B156" s="4">
-        <v>-0.35713100922907398</v>
+        <v>4.7726364559110203E-2</v>
       </c>
       <c r="C156" s="4">
-        <v>0.15377254239737101</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D156" s="4">
-        <v>336.84895819014901</v>
+        <v>382.558222902566</v>
       </c>
       <c r="E156" s="4">
-        <v>-2.32246279902296</v>
+        <v>0.79631289386380799</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -16610,16 +16626,16 @@
         <v>289</v>
       </c>
       <c r="B157" s="4">
-        <v>-0.15546274341271499</v>
+        <v>-1.33666742891605E-2</v>
       </c>
       <c r="C157" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D157" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E157" s="4">
-        <v>-1.3990802270249401</v>
+        <v>-0.30863405541550898</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -16630,16 +16646,16 @@
         <v>290</v>
       </c>
       <c r="B158" s="4">
-        <v>0.14543609415684799</v>
+        <v>7.1206875761722202E-2</v>
       </c>
       <c r="C158" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D158" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E158" s="4">
-        <v>1.5245272946092701</v>
+        <v>1.91572867040751</v>
       </c>
       <c r="F158" s="4">
         <v>1</v>
@@ -16650,16 +16666,16 @@
         <v>291</v>
       </c>
       <c r="B159" s="4">
-        <v>-0.31394221143608397</v>
+        <v>4.90656709586305E-2</v>
       </c>
       <c r="C159" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D159" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E159" s="4">
-        <v>-2.5222789578768601</v>
+        <v>1.0114055538620801</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -16670,16 +16686,16 @@
         <v>292</v>
       </c>
       <c r="B160" s="4">
-        <v>0.14140052009964901</v>
+        <v>-5.9907719477701502E-2</v>
       </c>
       <c r="C160" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D160" s="4">
-        <v>336.84895819011598</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E160" s="4">
-        <v>0.90408774764205801</v>
+        <v>-0.98275792045837596</v>
       </c>
       <c r="F160" s="4">
         <v>1</v>
@@ -16690,16 +16706,16 @@
         <v>293</v>
       </c>
       <c r="B161" s="4">
-        <v>-2.1526748815579502E-2</v>
+        <v>1.49211434961883E-2</v>
       </c>
       <c r="C161" s="4">
-        <v>6.1926403825099799E-2</v>
+        <v>2.7626594129766702E-2</v>
       </c>
       <c r="D161" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E161" s="4">
-        <v>-0.34761826112780603</v>
+        <v>0.54010072418269295</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
@@ -16710,16 +16726,16 @@
         <v>294</v>
       </c>
       <c r="B162" s="4">
-        <v>-9.6976986585311897E-2</v>
+        <v>-2.9516901728916102E-3</v>
       </c>
       <c r="C162" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D162" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E162" s="4">
-        <v>-0.87274019118381596</v>
+        <v>-6.8153984205959098E-2</v>
       </c>
       <c r="F162" s="4">
         <v>1</v>
@@ -16730,16 +16746,16 @@
         <v>295</v>
       </c>
       <c r="B163" s="4">
-        <v>0.10592522412090299</v>
+        <v>7.9431166712772804E-3</v>
       </c>
       <c r="C163" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D163" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E163" s="4">
-        <v>1.11035638227306</v>
+        <v>0.21369925553927499</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -16750,16 +16766,16 @@
         <v>296</v>
       </c>
       <c r="B164" s="4">
-        <v>-0.17759383791111</v>
+        <v>-7.8585256938838392E-3</v>
       </c>
       <c r="C164" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D164" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E164" s="4">
-        <v>-1.42682692576683</v>
+        <v>-0.16199017310215599</v>
       </c>
       <c r="F164" s="4">
         <v>1</v>
@@ -16770,19 +16786,19 @@
         <v>297</v>
       </c>
       <c r="B165" s="4">
-        <v>0.30089883756956198</v>
+        <v>8.4573550050882698E-2</v>
       </c>
       <c r="C165" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D165" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E165" s="4">
-        <v>4.19688947603266</v>
+        <v>3.02832400102898</v>
       </c>
       <c r="F165" s="4">
-        <v>6.4121235772348004E-3</v>
+        <v>0.48053773684510998</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16790,16 +16806,16 @@
         <v>298</v>
       </c>
       <c r="B166" s="4">
-        <v>-0.15847946802337001</v>
+        <v>6.2432345247791003E-2</v>
       </c>
       <c r="C166" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D166" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E166" s="4">
-        <v>-1.4757902321479699</v>
+        <v>1.49164495836672</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -16810,16 +16826,16 @@
         <v>299</v>
       </c>
       <c r="B167" s="4">
-        <v>0.29686326351236297</v>
+        <v>-4.6541045188541103E-2</v>
       </c>
       <c r="C167" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509398E-2</v>
       </c>
       <c r="D167" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902365</v>
       </c>
       <c r="E167" s="4">
-        <v>2.07333437277057</v>
+        <v>-0.83397534327418599</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -16830,16 +16846,16 @@
         <v>300</v>
       </c>
       <c r="B168" s="4">
-        <v>0.13393599459713501</v>
+        <v>2.82878177853488E-2</v>
       </c>
       <c r="C168" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D168" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E168" s="4">
-        <v>1.2053511832754999</v>
+        <v>0.65316051944402598</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
@@ -16850,16 +16866,16 @@
         <v>301</v>
       </c>
       <c r="B169" s="4">
-        <v>5.8485756827402799E-2</v>
+        <v>1.0414984116268801E-2</v>
       </c>
       <c r="C169" s="4">
-        <v>4.4409725714972398E-2</v>
+        <v>1.9812057409420099E-2</v>
       </c>
       <c r="D169" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E169" s="4">
-        <v>1.31695829879185</v>
+        <v>0.52568917508369495</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
@@ -16870,19 +16886,19 @@
         <v>302</v>
       </c>
       <c r="B170" s="4">
-        <v>0.26138796753361798</v>
+        <v>2.13097909604377E-2</v>
       </c>
       <c r="C170" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D170" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E170" s="4">
-        <v>3.64579809933563</v>
+        <v>0.76303940633423095</v>
       </c>
       <c r="F170" s="4">
-        <v>5.6178204144982702E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16890,16 +16906,16 @@
         <v>303</v>
       </c>
       <c r="B171" s="4">
-        <v>-2.2131094498395801E-2</v>
+        <v>5.5081485952766102E-3</v>
       </c>
       <c r="C171" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D171" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E171" s="4">
-        <v>-0.20608886119342701</v>
+        <v>0.131601688987806</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -16910,19 +16926,19 @@
         <v>304</v>
       </c>
       <c r="B172" s="4">
-        <v>-0.45937830559293202</v>
+        <v>-2.2141204803091698E-2</v>
       </c>
       <c r="C172" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D172" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E172" s="4">
-        <v>-5.0468018742986498</v>
+        <v>-0.62432446284524501</v>
       </c>
       <c r="F172" s="4">
-        <v>1.39947336121431E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16930,16 +16946,16 @@
         <v>305</v>
       </c>
       <c r="B173" s="4">
-        <v>-4.0355740571989297E-3</v>
+        <v>-0.13111459523942401</v>
       </c>
       <c r="C173" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.1188249516103797E-2</v>
       </c>
       <c r="D173" s="4">
-        <v>336.84895818985399</v>
+        <v>382.55822290222699</v>
       </c>
       <c r="E173" s="4">
-        <v>-3.07223514403538E-2</v>
+        <v>-2.5614197883085499</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -16950,16 +16966,16 @@
         <v>306</v>
       </c>
       <c r="B174" s="4">
-        <v>-0.166962842972427</v>
+        <v>-5.6285732265533898E-2</v>
       </c>
       <c r="C174" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D174" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E174" s="4">
-        <v>-1.7501804677352999</v>
+        <v>-1.514294650376</v>
       </c>
       <c r="F174" s="4">
         <v>1</v>
@@ -16970,19 +16986,19 @@
         <v>307</v>
       </c>
       <c r="B175" s="4">
-        <v>-0.24241308074216</v>
+        <v>-7.4158565934613799E-2</v>
       </c>
       <c r="C175" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D175" s="4">
-        <v>336.84895819070698</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E175" s="4">
-        <v>-3.3811393744059499</v>
+        <v>-2.6553948009344199</v>
       </c>
       <c r="F175" s="4">
-        <v>0.13875181358484301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -16990,19 +17006,19 @@
         <v>308</v>
       </c>
       <c r="B176" s="4">
-        <v>-3.9510870035944202E-2</v>
+        <v>-6.3263759090445001E-2</v>
       </c>
       <c r="C176" s="4">
-        <v>2.1103100342896801E-2</v>
+        <v>9.3842874194306706E-3</v>
       </c>
       <c r="D176" s="4">
-        <v>696.00000000002001</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E176" s="4">
-        <v>-1.87227797783009</v>
-      </c>
-      <c r="F176" s="4">
-        <v>1</v>
+        <v>-6.7414558253463097</v>
+      </c>
+      <c r="F176" s="5">
+        <v>6.2405890082701699E-9</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -17010,19 +17026,19 @@
         <v>309</v>
       </c>
       <c r="B177" s="4">
-        <v>-0.32302993206795799</v>
+        <v>-7.9065401455606102E-2</v>
       </c>
       <c r="C177" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D177" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E177" s="4">
-        <v>-3.5488573290610801</v>
+        <v>-2.2294389457308101</v>
       </c>
       <c r="F177" s="4">
-        <v>7.8648417716436103E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -17030,19 +17046,19 @@
         <v>310</v>
       </c>
       <c r="B178" s="4">
-        <v>0.45534273153573301</v>
+        <v>-0.108973390436332</v>
       </c>
       <c r="C178" s="4">
-        <v>0.15377254239737001</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D178" s="4">
-        <v>336.84895819009199</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E178" s="4">
-        <v>2.9611445869124098</v>
+        <v>-1.81821759721571</v>
       </c>
       <c r="F178" s="4">
-        <v>0.53176655594806699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -17050,16 +17066,16 @@
         <v>311</v>
       </c>
       <c r="B179" s="4">
-        <v>0.292415462620505</v>
+        <v>-3.4144527462442197E-2</v>
       </c>
       <c r="C179" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D179" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E179" s="4">
-        <v>2.3493284479066801</v>
+        <v>-0.70383149837342696</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -17070,16 +17086,16 @@
         <v>312</v>
       </c>
       <c r="B180" s="4">
-        <v>0.21696522485077199</v>
+        <v>-5.2017361131522097E-2</v>
       </c>
       <c r="C180" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D180" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E180" s="4">
-        <v>2.0204204591559001</v>
+        <v>-1.2428082618299701</v>
       </c>
       <c r="F180" s="4">
         <v>1</v>
@@ -17090,19 +17106,19 @@
         <v>313</v>
       </c>
       <c r="B181" s="4">
-        <v>0.41986743555698802</v>
+        <v>-4.1122554287353202E-2</v>
       </c>
       <c r="C181" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D181" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E181" s="4">
-        <v>4.6127292798272999</v>
+        <v>-1.1595492135410499</v>
       </c>
       <c r="F181" s="4">
-        <v>1.0629787750702801E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -17110,16 +17126,16 @@
         <v>314</v>
       </c>
       <c r="B182" s="4">
-        <v>0.136348373524974</v>
+        <v>-5.6924196652514303E-2</v>
       </c>
       <c r="C182" s="4">
-        <v>5.8748545017203703E-2</v>
+        <v>2.6208888432930001E-2</v>
       </c>
       <c r="D182" s="4">
-        <v>695.99999999998499</v>
+        <v>698.99999999997601</v>
       </c>
       <c r="E182" s="4">
-        <v>2.3208808573054198</v>
+        <v>-2.1719424232044999</v>
       </c>
       <c r="F182" s="4">
         <v>1</v>
@@ -17130,16 +17146,16 @@
         <v>315</v>
       </c>
       <c r="B183" s="4">
-        <v>-0.16292726891522799</v>
+        <v>7.4828862973889798E-2</v>
       </c>
       <c r="C183" s="4">
-        <v>0.15640132328796</v>
+        <v>6.0958775534222603E-2</v>
       </c>
       <c r="D183" s="4">
-        <v>336.84895819011598</v>
+        <v>382.55822290248199</v>
       </c>
       <c r="E183" s="4">
-        <v>-1.0417256420219201</v>
+        <v>1.22753225139636</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -17150,16 +17166,16 @@
         <v>316</v>
       </c>
       <c r="B184" s="4">
-        <v>-0.23837750668496099</v>
+        <v>5.6956029304809898E-2</v>
       </c>
       <c r="C184" s="4">
-        <v>0.14318156656789999</v>
+        <v>5.5806260417509398E-2</v>
       </c>
       <c r="D184" s="4">
-        <v>336.84895819000201</v>
+        <v>382.558222902365</v>
       </c>
       <c r="E184" s="4">
-        <v>-1.6648617025147401</v>
+        <v>1.0206028656766899</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -17170,16 +17186,16 @@
         <v>317</v>
       </c>
       <c r="B185" s="4">
-        <v>-3.5475295978745297E-2</v>
+        <v>6.7850836148978799E-2</v>
       </c>
       <c r="C185" s="4">
-        <v>0.13135628843494701</v>
+        <v>5.11882495161037E-2</v>
       </c>
       <c r="D185" s="4">
-        <v>336.84895818985399</v>
+        <v>382.55822290222699</v>
       </c>
       <c r="E185" s="4">
-        <v>-0.27006926277697102</v>
+        <v>1.3255158515946699</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -17190,16 +17206,16 @@
         <v>318</v>
       </c>
       <c r="B186" s="4">
-        <v>-0.31899435801075898</v>
+        <v>5.2049193783817699E-2</v>
       </c>
       <c r="C186" s="4">
-        <v>0.15377254239737001</v>
+        <v>5.9934185326996299E-2</v>
       </c>
       <c r="D186" s="4">
-        <v>336.84895819009199</v>
+        <v>382.55822290245999</v>
       </c>
       <c r="E186" s="4">
-        <v>-2.0744559011480201</v>
+        <v>0.86843916372336305</v>
       </c>
       <c r="F186" s="4">
         <v>1</v>
@@ -17210,16 +17226,16 @@
         <v>319</v>
       </c>
       <c r="B187" s="4">
-        <v>-7.5450237769732406E-2</v>
+        <v>-1.78728336690799E-2</v>
       </c>
       <c r="C187" s="4">
-        <v>0.111117818985475</v>
+        <v>4.33091360289619E-2</v>
       </c>
       <c r="D187" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E187" s="4">
-        <v>-0.67901114743437496</v>
+        <v>-0.41268044823447703</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -17230,16 +17246,16 @@
         <v>320</v>
       </c>
       <c r="B188" s="4">
-        <v>0.127451972936483</v>
+        <v>-6.9780268249110397E-3</v>
       </c>
       <c r="C188" s="4">
-        <v>9.5397501029407597E-2</v>
+        <v>3.7169603849263003E-2</v>
       </c>
       <c r="D188" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E188" s="4">
-        <v>1.3360095553990901</v>
+        <v>-0.187734764492235</v>
       </c>
       <c r="F188" s="4">
         <v>1</v>
@@ -17250,16 +17266,16 @@
         <v>321</v>
       </c>
       <c r="B189" s="4">
-        <v>-0.15606708909553099</v>
+        <v>-2.27796691900722E-2</v>
       </c>
       <c r="C189" s="4">
-        <v>0.124467680490165</v>
+        <v>4.8512360616640597E-2</v>
       </c>
       <c r="D189" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E189" s="4">
-        <v>-1.25387641579665</v>
+        <v>-0.46956422859081298</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -17270,19 +17286,19 @@
         <v>322</v>
       </c>
       <c r="B190" s="4">
-        <v>0.202902210706215</v>
+        <v>1.08948068441689E-2</v>
       </c>
       <c r="C190" s="4">
-        <v>7.1695678260749199E-2</v>
+        <v>2.7927510405804001E-2</v>
       </c>
       <c r="D190" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290310698</v>
       </c>
       <c r="E190" s="4">
-        <v>2.8300479977089101</v>
+        <v>0.39011020623967602</v>
       </c>
       <c r="F190" s="4">
-        <v>0.78933135492836004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="73.3" thickBot="1" x14ac:dyDescent="0.45">
@@ -17290,16 +17306,16 @@
         <v>323</v>
       </c>
       <c r="B191" s="4">
-        <v>-8.06168513257986E-2</v>
+        <v>-4.9068355209922303E-3</v>
       </c>
       <c r="C191" s="4">
-        <v>0.107386174925895</v>
+        <v>4.1854695313120201E-2</v>
       </c>
       <c r="D191" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E191" s="4">
-        <v>-0.75071908820134903</v>
+        <v>-0.11723500754894001</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -17310,19 +17326,19 @@
         <v>324</v>
       </c>
       <c r="B192" s="4">
-        <v>-0.28351906203201399</v>
+        <v>-1.58016423651611E-2</v>
       </c>
       <c r="C192" s="4">
-        <v>9.1023645673978804E-2</v>
+        <v>3.5464259564950001E-2</v>
       </c>
       <c r="D192" s="4">
-        <v>336.848958190715</v>
+        <v>382.55822290309698</v>
       </c>
       <c r="E192" s="4">
-        <v>-3.1147847345897302</v>
+        <v>-0.445565269344526</v>
       </c>
       <c r="F192" s="4">
-        <v>0.33379903835568198</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17342,7 +17358,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -21197,7 +21213,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26765,15 +26781,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26801,16 +26820,16 @@
         <v>578</v>
       </c>
       <c r="B3" s="4">
-        <v>3.3869397012737203E-2</v>
+        <v>-7.0114177857189597E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.14441014826867099</v>
+        <v>5.3135047300781502E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>231.00000000001401</v>
+        <v>232.00000000005099</v>
       </c>
       <c r="E3" s="4">
-        <v>0.23453612795774001</v>
+        <v>-1.3195467289281699</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -26824,16 +26843,16 @@
         <v>579</v>
       </c>
       <c r="B4" s="4">
-        <v>4.01473044084069E-2</v>
+        <v>-2.1214275281467101E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.13640124180013399</v>
+        <v>5.0188207143526398E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>231.00000000001401</v>
+        <v>232.000000000059</v>
       </c>
       <c r="E4" s="4">
-        <v>0.29433239667446698</v>
+        <v>-0.42269442342898</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -26847,16 +26866,16 @@
         <v>580</v>
       </c>
       <c r="B5" s="4">
-        <v>8.2894227302840406E-2</v>
+        <v>7.9551227594082501E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>0.110790226923816</v>
+        <v>4.07520576620626E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>231.000000000021</v>
+        <v>232.000000000086</v>
       </c>
       <c r="E5" s="4">
-        <v>0.74820884119897801</v>
+        <v>0.19520787944933499</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -26870,16 +26889,16 @@
         <v>581</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.14960295998699299</v>
+        <v>-3.4506247560843202E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.115468918960203</v>
+        <v>4.2486255600995497E-2</v>
       </c>
       <c r="D6" s="4">
-        <v>231.000000000021</v>
+        <v>232.000000000082</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.29561237200597</v>
+        <v>-0.81217436257279096</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -26893,19 +26912,19 @@
         <v>582</v>
       </c>
       <c r="B7" s="4">
-        <v>0.130339342004959</v>
+        <v>-0.114398517947364</v>
       </c>
       <c r="C7" s="4">
-        <v>0.163793090036258</v>
+        <v>6.02669112313758E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>231.00000000001</v>
+        <v>232.00000000003999</v>
       </c>
       <c r="E7" s="4">
-        <v>0.79575604792672505</v>
+        <v>-1.8981977939464501</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>0.70693491741347703</v>
       </c>
       <c r="I7" t="s">
         <v>606</v>
@@ -26916,16 +26935,16 @@
         <v>583</v>
       </c>
       <c r="B8" s="4">
-        <v>6.27790739566961E-3</v>
+        <v>4.8899902575722499E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.129874713426853</v>
+        <v>4.7786801162149103E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>230.99999999999801</v>
+        <v>232.00000000000099</v>
       </c>
       <c r="E8" s="4">
-        <v>4.8338180928540697E-2</v>
+        <v>1.0232930722815401</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -26939,19 +26958,19 @@
         <v>584</v>
       </c>
       <c r="B9" s="4">
-        <v>4.9024830290103197E-2</v>
+        <v>7.8069300616597795E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>0.102648023872452</v>
+        <v>3.7755164318558299E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>230.99999999999801</v>
+        <v>232.00000000000099</v>
       </c>
       <c r="E9" s="4">
-        <v>0.47760130629519298</v>
+        <v>2.06777806495265</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>0.51700810802034602</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -26959,16 +26978,16 @@
         <v>585</v>
       </c>
       <c r="B10" s="4">
-        <v>-0.183472356999731</v>
+        <v>3.5607930296346402E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>0.107681073865961</v>
+        <v>3.9620753955753901E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>230.99999999999801</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E10" s="4">
-        <v>-1.7038496219689701</v>
+        <v>0.89871914946674802</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -26979,16 +26998,16 @@
         <v>586</v>
       </c>
       <c r="B11" s="4">
-        <v>9.6469944992221904E-2</v>
+        <v>-4.4284340090174401E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>0.158399238529466</v>
+        <v>5.8282268473351197E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>230.99999999999801</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E11" s="4">
-        <v>0.60903035827584795</v>
+        <v>-0.75982526504476899</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -26999,16 +27018,16 @@
         <v>587</v>
       </c>
       <c r="B12" s="4">
-        <v>4.2746922894433603E-2</v>
+        <v>2.9169398040875399E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>9.1036391880162396E-2</v>
+        <v>3.3480969480386397E-2</v>
       </c>
       <c r="D12" s="4">
-        <v>230.99999999999801</v>
+        <v>232.00000000000099</v>
       </c>
       <c r="E12" s="4">
-        <v>0.46955862388202302</v>
+        <v>0.87122322004335095</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -27019,19 +27038,19 @@
         <v>588</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.18975026439539999</v>
+        <v>-1.3291972279376099E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>9.6675857951019101E-2</v>
+        <v>3.5571435571924999E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>230.99999999999801</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E13" s="4">
-        <v>-1.96274714718888</v>
+        <v>-0.37366982989764003</v>
       </c>
       <c r="F13" s="4">
-        <v>0.66138561956821595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -27039,16 +27058,16 @@
         <v>589</v>
       </c>
       <c r="B14" s="4">
-        <v>9.0192037596552296E-2</v>
+        <v>-9.3184242665896894E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>0.15113347282569001</v>
+        <v>5.5608863529342301E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>230.99999999999801</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E14" s="4">
-        <v>0.59677076103832705</v>
+        <v>-1.67570845278519</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -27059,19 +27078,19 @@
         <v>590</v>
       </c>
       <c r="B15" s="4">
-        <v>-0.23249718728983401</v>
+        <v>-4.2461370320251497E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>5.49126317688182E-2</v>
+        <v>2.0179224367110199E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>231.00000000001</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E15" s="4">
-        <v>-4.2339472686110797</v>
+        <v>-2.1042122109241599</v>
       </c>
       <c r="F15" s="4">
-        <v>4.9736076589003604E-4</v>
+        <v>0.51011040884504</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -27079,19 +27098,19 @@
         <v>591</v>
       </c>
       <c r="B16" s="4">
-        <v>4.74451147021187E-2</v>
+        <v>-0.122353640706772</v>
       </c>
       <c r="C16" s="4">
-        <v>0.1284931991413</v>
+        <v>4.7267533999940901E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>230.99999999999801</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E16" s="4">
-        <v>0.36924222464057999</v>
+        <v>-2.5885344622997501</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0.15370996993116701</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -27099,19 +27118,139 @@
         <v>592</v>
       </c>
       <c r="B17" s="4">
-        <v>0.27994230199195302</v>
+        <v>-7.9892270386520803E-2</v>
       </c>
       <c r="C17" s="4">
-        <v>0.132548478262004</v>
+        <v>4.8770600588229601E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>230.99999999999801</v>
+        <v>231.99999999999699</v>
       </c>
       <c r="E17" s="4">
-        <v>2.1119993655347802</v>
+        <v>-1.6381235708178301</v>
       </c>
       <c r="F17" s="4">
-        <v>0.50064829368424402</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-3.64302181543458E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.202856179691E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>696.00000000037505</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-3.0286428892691402</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.0189655534721001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.43862330872988E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.202856179691E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>696.00000000026796</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.19600608370275</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.46420295315367999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-2.31635535638973E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.202856179691E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>696.00000000012699</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-1.9257126458665901</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.16364198689442799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.0816451241644703E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.202856179691E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>696.00000000012699</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.2246489729718997</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.6269241214286899E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1.32666645904485E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.202856179691E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>696.00000000005605</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.1029302434025501</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.46420295315367999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-3.7549786651196099E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.202856179691E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>696.00000000002001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-3.1217187295693498</v>
+      </c>
+      <c r="F23" s="4">
+        <v>9.3620456178686202E-3</v>
       </c>
     </row>
   </sheetData>
@@ -27123,7 +27262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -27131,7 +27270,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
